--- a/gd/MT/前两天-新手-剧情-系统.xlsx
+++ b/gd/MT/前两天-新手-剧情-系统.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36900" windowHeight="19300" tabRatio="500"/>
+    <workbookView xWindow="2200" yWindow="2100" windowWidth="33380" windowHeight="17500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="897">
   <si>
     <t>时间</t>
   </si>
@@ -2277,9 +2277,6 @@
     <t>结算2-6</t>
   </si>
   <si>
-    <t>宠物经验</t>
-  </si>
-  <si>
     <t>提升宠物经验</t>
   </si>
   <si>
@@ -3253,6 +3250,75 @@
   </si>
   <si>
     <t>玩家可打断怪大招</t>
+  </si>
+  <si>
+    <t>新手0对局跳过</t>
+  </si>
+  <si>
+    <t>功能需求</t>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
+    <t>开锁</t>
+  </si>
+  <si>
+    <t>开放前显示点击弹提示</t>
+  </si>
+  <si>
+    <t>切页不过去</t>
+  </si>
+  <si>
+    <t>8，副本2-1</t>
+  </si>
+  <si>
+    <t>换物件？</t>
+  </si>
+  <si>
+    <t>或隐藏？</t>
+  </si>
+  <si>
+    <t>跟美术讨论</t>
+  </si>
+  <si>
+    <t>后面祈福和任务跟切页一样</t>
+  </si>
+  <si>
+    <t>合成（宝石）</t>
+  </si>
+  <si>
+    <t>4, 副本1-5</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>通天塔商店</t>
+  </si>
+  <si>
+    <t>公会商店</t>
+  </si>
+  <si>
+    <t>加了公会才有</t>
+  </si>
+  <si>
+    <t>需要成员加入公会</t>
+  </si>
+  <si>
+    <t>按顺序切换，没有开放即跳过</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>待定</t>
   </si>
 </sst>
 </file>
@@ -3403,7 +3469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3468,9 +3534,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3480,6 +3543,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9537,1377 +9606,1387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="25" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="20" style="23" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="21" style="25" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="25"/>
-    <col min="17" max="17" width="15.83203125" style="25" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="2" width="11.33203125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="24" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="20" style="22" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="21" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="24"/>
+    <col min="17" max="17" width="15.83203125" style="24" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>649</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>664</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="G4" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="F5" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" s="24" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8" s="24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="D9" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="F10" s="24" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D13" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="72" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D15" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="D16" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="D17" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="H18" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D20" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D21" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>650</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>648</v>
-      </c>
-      <c r="M1" s="25" t="s">
+      <c r="K21" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="22" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="I23" s="24" t="s">
+        <v>685</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D24" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E26" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="C27" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D29" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="N29" s="22"/>
+      <c r="P29" s="24" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="N1" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="G4" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="F5" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G6" s="25" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F7" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G8" s="25" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="D9" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="F10" s="25" t="s">
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D32" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>683</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D33" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>787</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D34" s="23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D35" s="23" t="s">
+        <v>684</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>686</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="I35" s="24" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D36" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>676</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="M36" s="22"/>
+      <c r="O36" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D37" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="C38" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="22" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D40" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="24" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D41" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D42" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E11" s="23" t="s">
-        <v>573</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E12" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D13" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="72" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="I14" s="23" t="s">
+      <c r="J42" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="22" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="B43" s="22" t="s">
+        <v>713</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D44" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>695</v>
+      </c>
+      <c r="I44" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="N14" s="25" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D15" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="D16" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="17" spans="3:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="D17" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="F17" s="25" t="s">
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D45" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D46" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>872</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="C47" s="22" t="s">
+        <v>716</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="M47" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="N47" s="24" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D48" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D49" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D50" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="N50" s="22"/>
+      <c r="O50" s="24" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D51" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="M51" s="24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D52" s="23" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D53" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q53" s="24" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C54" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D55" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="B56" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="M56" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="N56" s="24" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q56" s="24" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D57" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>725</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N58" s="24" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D59" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D60" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="F61" s="24" t="s">
+        <v>726</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="F62" s="24" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D63" s="23" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D64" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>721</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q64" s="24" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D65" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C66" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="M66" s="24" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D67" s="23" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D68" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q68" s="24" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D70" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" ht="54" x14ac:dyDescent="0.25">
+      <c r="D71" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="P71" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q71" s="22"/>
+    </row>
+    <row r="72" spans="2:17" ht="72" x14ac:dyDescent="0.25">
+      <c r="D72" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="P72" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E73" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C74" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q74" s="22"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D75" s="23" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D76" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="G76" s="22"/>
+      <c r="J76" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K76" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q76" s="24" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D77" s="23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D78" s="23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D79" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D80" s="23" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D81" s="23" t="s">
+        <v>737</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="K81" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="M81" s="24" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="P83" s="24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D84" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="M84" s="24" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D85" s="23" t="s">
+        <v>746</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" ht="72" x14ac:dyDescent="0.25">
+      <c r="D86" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="J86" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="P86" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q86" s="24" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="C87" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="M87" s="24" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D88" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D89" s="23" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D90" s="23" t="s">
+        <v>750</v>
+      </c>
+      <c r="J90" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="K90" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q90" s="24" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>815</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E92" s="22" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C93" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D94" s="23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D95" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="J95" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="K95" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="L95" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q95" s="24" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C96" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D98" s="23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D99" s="23" t="s">
         <v>610</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="H18" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20" spans="3:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D20" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D21" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>655</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>651</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F22" s="23" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D23" s="24" t="s">
-        <v>667</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>668</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="I23" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D24" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q24" s="25" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E25" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E26" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="C27" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D28" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D29" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="N29" s="23"/>
-      <c r="P29" s="25" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D30" s="24" t="s">
-        <v>661</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D31" s="24" t="s">
-        <v>683</v>
-      </c>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="3:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D32" s="24" t="s">
-        <v>660</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="25" t="s">
-        <v>772</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>684</v>
-      </c>
-      <c r="J32" s="23" t="s">
-        <v>662</v>
-      </c>
-      <c r="K32" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="O32" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D33" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>788</v>
-      </c>
-      <c r="M33" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="N33" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="P33" s="25" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D34" s="24" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D35" s="24" t="s">
-        <v>685</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>687</v>
-      </c>
-      <c r="G35" s="23"/>
-      <c r="I35" s="25" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D36" s="24" t="s">
-        <v>671</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>672</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="M36" s="23"/>
-      <c r="O36" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q36" s="25" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D37" s="24" t="s">
-        <v>671</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>842</v>
-      </c>
-      <c r="L37" s="25"/>
-      <c r="M37" s="23"/>
-    </row>
-    <row r="38" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="C38" s="23" t="s">
-        <v>680</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="M38" s="25" t="s">
-        <v>674</v>
-      </c>
-      <c r="N38" s="25" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E39" s="23" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D40" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>681</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="25" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D41" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D42" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>869</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="L42" s="23" t="s">
+      <c r="E99" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="J99" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="23" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="B43" s="23" t="s">
-        <v>714</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="N43" s="25" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D44" s="24" t="s">
-        <v>695</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>694</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>696</v>
-      </c>
-      <c r="I44" s="25" t="s">
+      <c r="K99" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="L99" s="22" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="D101" s="23" t="s">
+        <v>783</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="I101" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D45" s="24" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D46" s="24" t="s">
-        <v>691</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>873</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>692</v>
-      </c>
-      <c r="K46" s="23" t="s">
-        <v>672</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="C47" s="23" t="s">
-        <v>717</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="M47" s="25" t="s">
-        <v>853</v>
-      </c>
-      <c r="N47" s="25" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D48" s="24" t="s">
-        <v>632</v>
-      </c>
-      <c r="E48" s="23" t="s">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q102" s="22"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D103" s="23" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D49" s="24" t="s">
-        <v>698</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D50" s="24" t="s">
-        <v>699</v>
-      </c>
-      <c r="J50" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="K50" s="23" t="s">
-        <v>702</v>
-      </c>
-      <c r="L50" s="23" t="s">
-        <v>703</v>
-      </c>
-      <c r="N50" s="23"/>
-      <c r="O50" s="25" t="s">
-        <v>704</v>
-      </c>
-      <c r="Q50" s="25" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D51" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="M51" s="25" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="24" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D53" s="24" t="s">
-        <v>707</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>703</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q53" s="25" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C54" s="23" t="s">
-        <v>718</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>712</v>
-      </c>
-      <c r="M54" s="25" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D55" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>710</v>
-      </c>
-      <c r="K55" s="23" t="s">
-        <v>702</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
-        <v>715</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>719</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="M56" s="25" t="s">
-        <v>854</v>
-      </c>
-      <c r="N56" s="25" t="s">
-        <v>713</v>
-      </c>
-      <c r="Q56" s="25" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D57" s="24" t="s">
-        <v>725</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>726</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="N58" s="25" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D59" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D60" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="F61" s="25" t="s">
-        <v>727</v>
-      </c>
-      <c r="I61" s="23" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="F62" s="25" t="s">
+      <c r="Q103" s="22"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D104" s="23" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D105" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q105" s="24" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D106" s="23" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D107" s="23" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D108" s="23" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D109" s="23" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D110" s="23" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B111" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>809</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+      <c r="P112" s="24" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D113" s="23" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="23" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D115" s="23" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D116" s="23" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="23" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D118" s="23" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C119" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D120" s="23" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D121" s="23" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="23" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="23" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="23" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="23" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C128" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E129" s="22" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="130" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D130" s="23" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="131" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D131" s="23" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="132" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D132" s="23" t="s">
+        <v>822</v>
+      </c>
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D133" s="23" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="134" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D134" s="23" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="135" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D135" s="23" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="136" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D136" s="23" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="137" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D137" s="23" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="138" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D138" s="23" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="139" spans="4:16" ht="36" x14ac:dyDescent="0.25">
+      <c r="P139" s="24" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D63" s="24" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D64" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="J64" s="23" t="s">
-        <v>721</v>
-      </c>
-      <c r="K64" s="23" t="s">
-        <v>722</v>
-      </c>
-      <c r="L64" s="23" t="s">
-        <v>723</v>
-      </c>
-      <c r="M64" s="25" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q64" s="25" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D65" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C66" s="23" t="s">
-        <v>763</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>733</v>
-      </c>
-      <c r="M66" s="25" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D67" s="24" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D68" s="24" t="s">
-        <v>732</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>742</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="J68" s="23" t="s">
-        <v>740</v>
-      </c>
-      <c r="K68" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>741</v>
-      </c>
-      <c r="Q68" s="25" t="s">
+    <row r="140" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E140" s="22" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="141" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E141" s="22" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="142" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E142" s="22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="143" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E143" s="22" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="144" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="E144" s="22" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="24" t="s">
-        <v>781</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="D71" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>765</v>
-      </c>
-      <c r="P71" s="25" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q71" s="23"/>
-    </row>
-    <row r="72" spans="2:17" ht="72" x14ac:dyDescent="0.25">
-      <c r="D72" s="24" t="s">
-        <v>768</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>768</v>
-      </c>
-      <c r="P72" s="25" t="s">
-        <v>769</v>
-      </c>
-      <c r="Q72" s="23"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E73" s="23" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q73" s="23"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C74" s="23" t="s">
-        <v>777</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>771</v>
-      </c>
-      <c r="Q74" s="23"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D75" s="24" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D76" s="24" t="s">
-        <v>735</v>
-      </c>
-      <c r="G76" s="23"/>
-      <c r="J76" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="L76" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q76" s="25" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D77" s="24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="24" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="79" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D79" s="24" t="s">
-        <v>851</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>863</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="24" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="81" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D81" s="24" t="s">
-        <v>738</v>
-      </c>
-      <c r="J81" s="23" t="s">
-        <v>744</v>
-      </c>
-      <c r="K81" s="23" t="s">
-        <v>745</v>
-      </c>
-      <c r="L81" s="23" t="s">
-        <v>746</v>
-      </c>
-      <c r="M81" s="25" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="23" t="s">
-        <v>775</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>778</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="P83" s="25" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D84" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="M84" s="25" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D85" s="24" t="s">
-        <v>747</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="86" spans="2:17" ht="72" x14ac:dyDescent="0.25">
-      <c r="D86" s="24" t="s">
-        <v>748</v>
-      </c>
-      <c r="J86" s="23" t="s">
-        <v>741</v>
-      </c>
-      <c r="K86" s="23" t="s">
-        <v>701</v>
-      </c>
-      <c r="L86" s="23" t="s">
-        <v>752</v>
-      </c>
-      <c r="P86" s="25" t="s">
-        <v>858</v>
-      </c>
-      <c r="Q86" s="25" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="87" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="C87" s="23" t="s">
-        <v>782</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>749</v>
-      </c>
-      <c r="M87" s="25" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D88" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D89" s="24" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D90" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="J90" s="23" t="s">
-        <v>753</v>
-      </c>
-      <c r="K90" s="23" t="s">
-        <v>746</v>
-      </c>
-      <c r="L90" s="23" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q90" s="25" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="23" t="s">
-        <v>774</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>816</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E92" s="23" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C93" s="23" t="s">
-        <v>817</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D94" s="24" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D95" s="24" t="s">
-        <v>756</v>
-      </c>
-      <c r="J95" s="23" t="s">
-        <v>758</v>
-      </c>
-      <c r="K95" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="L95" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q95" s="25" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C96" s="23" t="s">
-        <v>815</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D98" s="24" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D99" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>762</v>
-      </c>
-      <c r="J99" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K99" s="23" t="s">
-        <v>752</v>
-      </c>
-      <c r="L99" s="23" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="23" t="s">
-        <v>783</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>786</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="101" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D101" s="24" t="s">
-        <v>784</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>785</v>
-      </c>
-      <c r="F101" s="25" t="s">
-        <v>852</v>
-      </c>
-      <c r="I101" s="23" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="Q102" s="23"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D103" s="24" t="s">
-        <v>790</v>
-      </c>
-      <c r="Q103" s="23"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D104" s="24" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D105" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="Q105" s="25" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D106" s="24" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D107" s="24" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D108" s="24" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D109" s="24" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D110" s="24" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="23" t="s">
-        <v>799</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>810</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="P112" s="25" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D113" s="24" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D114" s="24" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D115" s="24" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D116" s="24" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D117" s="24" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D118" s="24" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C119" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D120" s="24" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D121" s="24" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="24" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D123" s="24" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D124" s="24" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D125" s="24" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C128" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="E128" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E129" s="23" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="130" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D130" s="24" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="131" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D131" s="24" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="132" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D132" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="F132" s="23"/>
-    </row>
-    <row r="133" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D133" s="24" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="134" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D134" s="24" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="135" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D135" s="24" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="136" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D136" s="24" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="137" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D137" s="24" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="138" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D138" s="24" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="139" spans="4:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="P139" s="25" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="140" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E140" s="23" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="141" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E141" s="23" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="142" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E142" s="23" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="143" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E143" s="23" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="144" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E144" s="23" t="s">
-        <v>862</v>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" s="22" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -10917,803 +10996,1008 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J65"/>
+  <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C2" t="s">
-        <v>633</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>1</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>578</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="F6" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>579</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E7" s="25">
         <v>1</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E7" s="26">
-        <v>1</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F7" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>580</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>581</v>
       </c>
-      <c r="E9" s="26">
+      <c r="D9" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="E9" s="25">
         <v>1</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="25">
+        <v>6</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I9" t="s">
+        <v>880</v>
+      </c>
+      <c r="J9" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>582</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="E10" s="26">
+        <v>584</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="25">
+        <v>8</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="I10" t="s">
+        <v>880</v>
+      </c>
+      <c r="J10" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="25" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>585</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="E12" s="26">
-        <v>2</v>
-      </c>
-      <c r="F12" s="26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+      <c r="C12" t="s">
+        <v>636</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>859</v>
+      </c>
+      <c r="E12" s="25">
+        <v>3</v>
+      </c>
+      <c r="F12" s="25">
+        <v>24</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="I12" t="s">
+        <v>880</v>
+      </c>
+      <c r="J12" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>583</v>
       </c>
-      <c r="C13" t="s">
-        <v>637</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>860</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="D13" s="25" t="s">
+        <v>859</v>
+      </c>
+      <c r="E13" s="25">
         <v>3</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>24</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="I13" t="s">
+        <v>880</v>
+      </c>
+      <c r="J13" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>584</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>860</v>
-      </c>
-      <c r="E14" s="26">
-        <v>3</v>
-      </c>
-      <c r="F14" s="26">
-        <v>24</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>640</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>587</v>
-      </c>
+      <c r="H14" s="25" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B16" t="s">
+        <v>575</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>576</v>
-      </c>
-      <c r="E17" s="26">
+        <v>602</v>
+      </c>
+      <c r="E17" s="25">
         <v>1</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>603</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>1</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>604</v>
-      </c>
-      <c r="E19" s="26">
+        <v>520</v>
+      </c>
+      <c r="E19" s="25">
         <v>1</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>520</v>
-      </c>
-      <c r="E20" s="26">
+        <v>180</v>
+      </c>
+      <c r="E20" s="25">
         <v>1</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="26">
+        <v>538</v>
+      </c>
+      <c r="E21" s="25">
         <v>1</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>538</v>
-      </c>
-      <c r="E22" s="26">
+        <v>528</v>
+      </c>
+      <c r="E22" s="25">
         <v>1</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>528</v>
-      </c>
-      <c r="E23" s="26">
+        <v>646</v>
+      </c>
+      <c r="E23" s="25">
         <v>1</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>647</v>
-      </c>
-      <c r="E24" s="26">
+        <v>831</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="E24" s="25">
         <v>1</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="25" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>832</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="E25" s="26">
+        <v>627</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="25" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>628</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="E26" s="26">
+        <v>616</v>
+      </c>
+      <c r="C26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="E26" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="25" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C27" t="s">
         <v>634</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="E27" s="26">
+      <c r="D27" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E27" s="25">
         <v>1</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" s="25" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>616</v>
-      </c>
-      <c r="C28" t="s">
-        <v>635</v>
-      </c>
-      <c r="D28" s="26" t="s">
         <v>833</v>
       </c>
-      <c r="E28" s="26">
+      <c r="D28" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="E28" s="25">
+        <v>2</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>576</v>
+      </c>
+      <c r="C29" t="s">
+        <v>641</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="E29" s="25">
         <v>1</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>834</v>
-      </c>
-      <c r="D29" s="26" t="s">
+      <c r="F29" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="I29" t="s">
+        <v>880</v>
+      </c>
+      <c r="J29" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>628</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>835</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E30" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>577</v>
-      </c>
-      <c r="C30" t="s">
-        <v>642</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="E30" s="26">
+      <c r="G30" s="25" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E32" s="25">
         <v>1</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>629</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="E31" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
+      <c r="G32" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>589</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="D33" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E33" s="25">
         <v>1</v>
       </c>
-      <c r="G33" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>590</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="E34" s="26">
-        <v>1</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="E34" s="25">
+        <v>2</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="J34" s="25" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>591</v>
-      </c>
-      <c r="D35" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="C35" t="s">
+        <v>635</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="E35" s="25">
+        <v>2</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>626</v>
+      </c>
+      <c r="E36" s="25">
+        <v>3</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>623</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>837</v>
       </c>
-      <c r="E35" s="26">
-        <v>2</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>588</v>
-      </c>
-      <c r="C36" t="s">
-        <v>636</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="E36" s="26">
-        <v>2</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>627</v>
-      </c>
-      <c r="E37" s="26">
+      <c r="E37" s="25">
         <v>3</v>
       </c>
-      <c r="G37" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>624</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>838</v>
-      </c>
-      <c r="E38" s="26">
-        <v>3</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+      <c r="E38" s="25">
+        <v>4</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>622</v>
       </c>
-      <c r="E39" s="26">
-        <v>4</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>623</v>
-      </c>
-      <c r="E40" s="26">
+      <c r="E39" s="25">
         <v>5</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="G39" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>14</v>
       </c>
+      <c r="B41" t="s">
+        <v>644</v>
+      </c>
+      <c r="E41" s="25">
+        <v>1</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>645</v>
-      </c>
-      <c r="E42" s="26">
+        <v>591</v>
+      </c>
+      <c r="E42" s="25">
         <v>1</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>592</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="25">
         <v>1</v>
       </c>
-      <c r="F43" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F43" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>601</v>
+      </c>
+      <c r="E44" s="25">
+        <v>1</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>895</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>886</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="E46" s="25">
+        <v>1</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>599</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="E47" s="25">
+        <v>1</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>630</v>
+      </c>
+      <c r="C48" t="s">
+        <v>892</v>
+      </c>
+      <c r="E48" s="25">
+        <v>1</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="I48" t="s">
+        <v>880</v>
+      </c>
+      <c r="J48" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>593</v>
       </c>
-      <c r="E44" s="26">
+      <c r="B50" t="s">
+        <v>594</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="E50" s="25">
         <v>1</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>599</v>
-      </c>
-      <c r="E45" s="26">
-        <v>4</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>602</v>
-      </c>
-      <c r="E46" s="26">
-        <v>1</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>600</v>
-      </c>
-      <c r="E47" s="26">
-        <v>2</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>631</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>594</v>
-      </c>
-      <c r="B50" t="s">
-        <v>595</v>
-      </c>
-      <c r="C50"/>
-      <c r="D50" s="26" t="s">
-        <v>839</v>
-      </c>
-      <c r="E50" s="26">
-        <v>1</v>
-      </c>
-      <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
-    </row>
-    <row r="51" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C51"/>
-      <c r="D51" s="26" t="s">
-        <v>839</v>
-      </c>
-      <c r="E51" s="26">
+      <c r="D51" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="E51" s="25">
         <v>1</v>
       </c>
-      <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
-    </row>
-    <row r="52" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C52"/>
-      <c r="D52" s="26" t="s">
-        <v>840</v>
-      </c>
-      <c r="E52" s="26">
+      <c r="D52" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="E52" s="25">
         <v>1</v>
       </c>
-      <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
-    </row>
-    <row r="53" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C53"/>
-      <c r="D53" s="26" t="s">
-        <v>840</v>
-      </c>
-      <c r="E53" s="26">
+      <c r="D53" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="E53" s="25">
         <v>1</v>
       </c>
-      <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
-    </row>
-    <row r="54" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C54"/>
-      <c r="D54" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="E54" s="26">
-        <v>2</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="H54"/>
+      <c r="D54" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E54" s="25">
+        <v>1</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>638</v>
+      </c>
       <c r="I54"/>
       <c r="J54"/>
-    </row>
-    <row r="55" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>638</v>
+        <v>889</v>
       </c>
       <c r="C55"/>
-      <c r="D55" s="26" t="s">
-        <v>841</v>
-      </c>
-      <c r="E55" s="26">
+      <c r="D55" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="E55" s="25">
         <v>2</v>
       </c>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="57" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>613</v>
-      </c>
+      <c r="I55" t="s">
+        <v>880</v>
+      </c>
+      <c r="J55" t="s">
+        <v>893</v>
+      </c>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>890</v>
+      </c>
+      <c r="C56" t="s">
+        <v>892</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="I56" t="s">
+        <v>880</v>
+      </c>
+      <c r="J56" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
       <c r="B57" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="C57"/>
-      <c r="F57" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="H57"/>
+      <c r="D57" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="E57" s="25">
+        <v>2</v>
+      </c>
       <c r="I57"/>
       <c r="J57"/>
-    </row>
-    <row r="58" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-      <c r="B58" t="s">
-        <v>615</v>
-      </c>
-      <c r="C58"/>
-      <c r="F58" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59"/>
+      <c r="K57"/>
+    </row>
+    <row r="59" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>612</v>
+      </c>
       <c r="B59" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C59"/>
-      <c r="D59" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="E59" s="26">
-        <v>1</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="H59"/>
+      <c r="F59" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="I59"/>
       <c r="J59"/>
-    </row>
-    <row r="60" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C60"/>
-      <c r="D60" s="26" t="s">
-        <v>838</v>
-      </c>
-      <c r="E60" s="26">
-        <v>3</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="H60"/>
+      <c r="F60" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="I60"/>
       <c r="J60"/>
-    </row>
-    <row r="61" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" t="s">
-        <v>626</v>
-      </c>
-      <c r="C61"/>
-      <c r="D61" s="26" t="s">
-        <v>836</v>
-      </c>
-      <c r="E61" s="26">
-        <v>3</v>
-      </c>
-      <c r="G61" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="H61"/>
+        <v>615</v>
+      </c>
+      <c r="C61" t="s">
+        <v>888</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E61" s="25">
+        <v>1</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>638</v>
+      </c>
       <c r="I61"/>
       <c r="J61"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62"/>
       <c r="B62" t="s">
-        <v>850</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+        <v>624</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="E62" s="25">
+        <v>3</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63" t="s">
+        <v>625</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="E63" s="25">
+        <v>3</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>849</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>617</v>
+      </c>
+      <c r="B66" t="s">
         <v>618</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C66"/>
+      <c r="D66" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="E66" s="25">
+        <v>1</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67"/>
+      <c r="B67" t="s">
         <v>619</v>
       </c>
-      <c r="C64"/>
-      <c r="D64" s="26" t="s">
-        <v>833</v>
-      </c>
-      <c r="E64" s="26">
+      <c r="C67"/>
+      <c r="D67" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="E67" s="25">
         <v>1</v>
       </c>
-      <c r="G64" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-    </row>
-    <row r="65" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65"/>
-      <c r="B65" t="s">
-        <v>620</v>
-      </c>
-      <c r="C65"/>
-      <c r="D65" s="26" t="s">
-        <v>831</v>
-      </c>
-      <c r="E65" s="26">
-        <v>1</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
+      <c r="H67" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11742,11 +12026,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -17860,7 +18144,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/gd/MT/前两天-新手-剧情-系统.xlsx
+++ b/gd/MT/前两天-新手-剧情-系统.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/MT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文档\gd\MT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2100" windowWidth="33380" windowHeight="17500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2205" yWindow="2100" windowWidth="33375" windowHeight="17505" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Boss技能逻辑" sheetId="5" r:id="rId4"/>
     <sheet name="YY" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="898">
   <si>
     <t>时间</t>
   </si>
@@ -2490,9 +2490,6 @@
     <t>章节全三星奖励</t>
   </si>
   <si>
-    <t>前期隐藏</t>
-  </si>
-  <si>
     <t>公会大冒险</t>
   </si>
   <si>
@@ -2526,9 +2523,6 @@
     <t>宠物装备</t>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>完成1星</t>
   </si>
   <si>
@@ -2544,9 +2538,6 @@
     <t>推销礼包</t>
   </si>
   <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>宠物进化</t>
   </si>
   <si>
@@ -3303,9 +3294,6 @@
     <t>公会商店</t>
   </si>
   <si>
-    <t>加了公会才有</t>
-  </si>
-  <si>
     <t>需要成员加入公会</t>
   </si>
   <si>
@@ -3319,24 +3307,44 @@
   </si>
   <si>
     <t>待定</t>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>同“通天塔”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>同“公会”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能备注</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计备注</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3395,7 +3403,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3469,7 +3485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -3544,16 +3560,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3571,6 +3591,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9608,32 +9631,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="A47:XFD47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="A115:XFD115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.33203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" style="22" customWidth="1"/>
+    <col min="1" max="2" width="11.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="25.625" style="22" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="24" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="24" customWidth="1"/>
     <col min="9" max="9" width="20" style="22" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="22" customWidth="1"/>
+    <col min="10" max="11" width="14.625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="22" customWidth="1"/>
     <col min="13" max="13" width="21" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="22" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="24"/>
-    <col min="17" max="17" width="15.83203125" style="24" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="22"/>
+    <col min="14" max="14" width="16.875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="22" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="24"/>
+    <col min="17" max="17" width="15.875" style="24" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -9662,16 +9685,16 @@
         <v>9</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>6</v>
@@ -9686,12 +9709,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C3" s="22">
         <v>1</v>
       </c>
@@ -9699,15 +9722,15 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="51.75" x14ac:dyDescent="0.3">
       <c r="G4" s="24" t="s">
         <v>557</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="F5" s="24" t="s">
         <v>522</v>
       </c>
@@ -9715,25 +9738,25 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G6" s="24" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F7" s="24" t="s">
         <v>521</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G8" s="24" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="51.75" x14ac:dyDescent="0.3">
       <c r="D9" s="23" t="s">
         <v>554</v>
       </c>
@@ -9750,12 +9773,12 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="F10" s="24" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E11" s="22" t="s">
         <v>572</v>
       </c>
@@ -9763,7 +9786,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E12" s="22" t="s">
         <v>565</v>
       </c>
@@ -9771,7 +9794,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D13" s="23" t="s">
         <v>558</v>
       </c>
@@ -9779,7 +9802,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>1</v>
       </c>
@@ -9799,7 +9822,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D15" s="23" t="s">
         <v>558</v>
       </c>
@@ -9810,7 +9833,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="51.75" x14ac:dyDescent="0.3">
       <c r="D16" s="23" t="s">
         <v>558</v>
       </c>
@@ -9821,7 +9844,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="17" spans="3:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:17" ht="51.75" x14ac:dyDescent="0.3">
       <c r="D17" s="23" t="s">
         <v>558</v>
       </c>
@@ -9838,16 +9861,16 @@
         <v>537</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" ht="54" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="51.75" x14ac:dyDescent="0.3">
       <c r="H18" s="24" t="s">
         <v>562</v>
       </c>
       <c r="I18" s="24"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D19" s="23" t="s">
         <v>561</v>
       </c>
@@ -9858,7 +9881,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D20" s="23" t="s">
         <v>534</v>
       </c>
@@ -9869,61 +9892,61 @@
         <v>556</v>
       </c>
     </row>
-    <row r="21" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D21" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q21" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>869</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>651</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.3">
       <c r="F22" s="22" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D23" s="23" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G23" s="22"/>
       <c r="I23" s="24" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D24" s="23" t="s">
         <v>533</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="Q24" s="24" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E25" s="22" t="s">
         <v>532</v>
       </c>
@@ -9931,7 +9954,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E26" s="22" t="s">
         <v>180</v>
       </c>
@@ -9939,18 +9962,18 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="C27" s="22" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>539</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D28" s="23" t="s">
         <v>547</v>
       </c>
@@ -9958,7 +9981,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D29" s="23" t="s">
         <v>547</v>
       </c>
@@ -9967,162 +9990,162 @@
       </c>
       <c r="N29" s="22"/>
       <c r="P29" s="24" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D30" s="23" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>555</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D31" s="23" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="3:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D32" s="23" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="24" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L32" s="24" t="s">
+        <v>671</v>
+      </c>
+      <c r="O32" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="O32" s="22" t="s">
-        <v>677</v>
-      </c>
       <c r="Q32" s="24" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D33" s="23" t="s">
         <v>540</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="N33" s="24" t="s">
         <v>613</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D34" s="23" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D35" s="23" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G35" s="22"/>
       <c r="I35" s="24" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D36" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="L36" s="24" t="s">
         <v>670</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>676</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>673</v>
       </c>
       <c r="M36" s="22"/>
       <c r="O36" s="22" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Q36" s="24" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D37" s="23" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="C38" s="22" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D38" s="23" t="s">
         <v>541</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="N38" s="24" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E39" s="22" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D40" s="23" t="s">
         <v>547</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="24" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D41" s="23" t="s">
         <v>568</v>
       </c>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D42" s="23" t="s">
         <v>570</v>
       </c>
@@ -10130,10 +10153,10 @@
         <v>571</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K42" s="22" t="s">
         <v>86</v>
@@ -10142,108 +10165,108 @@
         <v>47</v>
       </c>
       <c r="O42" s="22" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B43" s="22" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>546</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D44" s="23" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D45" s="23" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D46" s="23" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" ht="54" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" ht="51.75" x14ac:dyDescent="0.3">
       <c r="C47" s="22" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>542</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="N47" s="24" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D48" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D49" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D48" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D49" s="23" t="s">
+    <row r="50" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D50" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="J50" s="22" t="s">
         <v>697</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="K50" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="L50" s="22" t="s">
         <v>699</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D50" s="23" t="s">
-        <v>698</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>700</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>701</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>702</v>
       </c>
       <c r="N50" s="22"/>
       <c r="O50" s="24" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="Q50" s="24" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D51" s="23" t="s">
         <v>543</v>
       </c>
@@ -10251,98 +10274,98 @@
         <v>545</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D52" s="23" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="D53" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="L53" s="22" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="53" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="D53" s="23" t="s">
-        <v>706</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>702</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>707</v>
-      </c>
-      <c r="L53" s="22" t="s">
+      <c r="Q53" s="24" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C54" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="D54" s="23" t="s">
         <v>708</v>
-      </c>
-      <c r="Q53" s="24" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C54" s="22" t="s">
-        <v>717</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>711</v>
       </c>
       <c r="M54" s="24" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D55" s="23" t="s">
         <v>569</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" ht="54" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B56" s="22" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>544</v>
       </c>
       <c r="M56" s="24" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="N56" s="24" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Q56" s="24" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D57" s="23" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N58" s="24" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D59" s="23" t="s">
         <v>577</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D60" s="23" t="s">
         <v>581</v>
       </c>
@@ -10350,160 +10373,160 @@
         <v>581</v>
       </c>
     </row>
-    <row r="61" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="F61" s="24" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="I61" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="62" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="F62" s="24" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D63" s="23" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D64" s="23" t="s">
         <v>552</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J64" s="22" t="s">
+        <v>717</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="M64" s="24" t="s">
         <v>720</v>
       </c>
-      <c r="K64" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="L64" s="22" t="s">
-        <v>722</v>
-      </c>
-      <c r="M64" s="24" t="s">
-        <v>723</v>
-      </c>
       <c r="Q64" s="24" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D65" s="23" t="s">
         <v>552</v>
       </c>
       <c r="E65" s="22" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C66" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="M66" s="24" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D67" s="23" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D68" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="J68" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q68" s="24" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B69" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D70" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D71" s="23" t="s">
+        <v>761</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="P71" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q71" s="22"/>
+    </row>
+    <row r="72" spans="2:17" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D72" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="P72" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q72" s="22"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="E73" s="22" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C66" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>732</v>
-      </c>
-      <c r="M66" s="24" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D67" s="23" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D68" s="23" t="s">
+      <c r="Q73" s="22"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C74" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="Q74" s="22"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D75" s="23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D76" s="23" t="s">
         <v>731</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>741</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>742</v>
-      </c>
-      <c r="J68" s="22" t="s">
-        <v>739</v>
-      </c>
-      <c r="K68" s="22" t="s">
-        <v>652</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q68" s="24" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="23" t="s">
-        <v>780</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" ht="54" x14ac:dyDescent="0.25">
-      <c r="D71" s="23" t="s">
-        <v>764</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>764</v>
-      </c>
-      <c r="P71" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q71" s="22"/>
-    </row>
-    <row r="72" spans="2:17" ht="72" x14ac:dyDescent="0.25">
-      <c r="D72" s="23" t="s">
-        <v>767</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>767</v>
-      </c>
-      <c r="P72" s="24" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q72" s="22"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E73" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="Q73" s="22"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C74" s="22" t="s">
-        <v>776</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q74" s="22"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D75" s="23" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D76" s="23" t="s">
-        <v>734</v>
       </c>
       <c r="G76" s="22"/>
       <c r="J76" s="22" t="s">
@@ -10513,119 +10536,119 @@
         <v>71</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="Q76" s="24" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D77" s="23" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D78" s="23" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="79" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D79" s="23" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="I79" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D80" s="23" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="81" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" ht="34.5" x14ac:dyDescent="0.3">
       <c r="D81" s="23" t="s">
+        <v>734</v>
+      </c>
+      <c r="J81" s="22" t="s">
+        <v>740</v>
+      </c>
+      <c r="K81" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="M81" s="24" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B82" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P83" s="24" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D84" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="M84" s="24" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D85" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="D86" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="J86" s="22" t="s">
         <v>737</v>
       </c>
-      <c r="J81" s="22" t="s">
-        <v>743</v>
-      </c>
-      <c r="K81" s="22" t="s">
-        <v>744</v>
-      </c>
-      <c r="L81" s="22" t="s">
+      <c r="K86" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="P86" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q86" s="24" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C87" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>745</v>
       </c>
-      <c r="M81" s="24" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>777</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="83" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="P83" s="24" t="s">
+      <c r="M87" s="24" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D84" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="M84" s="24" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D85" s="23" t="s">
-        <v>746</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="86" spans="2:17" ht="72" x14ac:dyDescent="0.25">
-      <c r="D86" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="J86" s="22" t="s">
-        <v>740</v>
-      </c>
-      <c r="K86" s="22" t="s">
-        <v>700</v>
-      </c>
-      <c r="L86" s="22" t="s">
-        <v>751</v>
-      </c>
-      <c r="P86" s="24" t="s">
-        <v>857</v>
-      </c>
-      <c r="Q86" s="24" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="87" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="C87" s="22" t="s">
-        <v>781</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>748</v>
-      </c>
-      <c r="M87" s="24" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D88" s="23" t="s">
         <v>590</v>
       </c>
@@ -10633,263 +10656,263 @@
         <v>590</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D89" s="23" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D90" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="J90" s="22" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D90" s="23" t="s">
-        <v>750</v>
-      </c>
-      <c r="J90" s="22" t="s">
-        <v>752</v>
-      </c>
       <c r="K90" s="22" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="Q90" s="24" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B91" s="22" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D91" s="23" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E92" s="22" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C93" s="22" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D94" s="23" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D95" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="J95" s="22" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D95" s="23" t="s">
+      <c r="K95" s="22" t="s">
         <v>755</v>
-      </c>
-      <c r="J95" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="K95" s="22" t="s">
-        <v>758</v>
       </c>
       <c r="L95" s="22" t="s">
         <v>86</v>
       </c>
       <c r="Q95" s="24" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C96" s="22" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D98" s="23" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D99" s="23" t="s">
         <v>610</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="J99" s="22" t="s">
         <v>47</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="L99" s="22" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B100" s="22" t="s">
+        <v>779</v>
+      </c>
+      <c r="C100" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="C100" s="22" t="s">
-        <v>785</v>
-      </c>
       <c r="D100" s="23" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="101" spans="2:17" ht="36" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" ht="51.75" x14ac:dyDescent="0.3">
       <c r="D101" s="23" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I101" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.3">
       <c r="Q102" s="22"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D103" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q103" s="22"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D104" s="23" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D105" s="23" t="s">
         <v>789</v>
       </c>
-      <c r="Q103" s="22"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D104" s="23" t="s">
+      <c r="Q105" s="24" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D106" s="23" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D107" s="23" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D108" s="23" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D105" s="23" t="s">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D109" s="23" t="s">
         <v>792</v>
       </c>
-      <c r="Q105" s="24" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D106" s="23" t="s">
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D110" s="23" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D107" s="23" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D108" s="23" t="s">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B111" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="D111" s="23" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D109" s="23" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D110" s="23" t="s">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P112" s="24" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D113" s="23" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D114" s="23" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D115" s="23" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D116" s="23" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="22" t="s">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D117" s="23" t="s">
         <v>798</v>
       </c>
-      <c r="C111" s="22" t="s">
-        <v>809</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="112" spans="2:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="P112" s="24" t="s">
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D118" s="23" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C119" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D120" s="23" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D113" s="23" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D114" s="23" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D115" s="23" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D116" s="23" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D117" s="23" t="s">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D121" s="23" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D118" s="23" t="s">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D122" s="23" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C119" s="22" t="s">
-        <v>828</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D120" s="23" t="s">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D123" s="23" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D121" s="23" t="s">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D124" s="23" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="23" t="s">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D125" s="23" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D123" s="23" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D124" s="23" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D125" s="23" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C128" s="22" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D128" s="23" t="s">
         <v>611</v>
@@ -10898,98 +10921,99 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E129" s="22" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="130" spans="4:16" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="130" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D130" s="23" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="131" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D131" s="23" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="131" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D131" s="23" t="s">
+    <row r="132" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D132" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D133" s="23" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="132" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D132" s="23" t="s">
+    <row r="134" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D134" s="23" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="135" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D135" s="23" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="136" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D136" s="23" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="137" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D137" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="F132" s="22"/>
-    </row>
-    <row r="133" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D133" s="23" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="134" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D134" s="23" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="135" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D135" s="23" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="136" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D136" s="23" t="s">
+    </row>
+    <row r="138" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D138" s="23" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="139" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="P139" s="24" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="137" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D137" s="23" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="138" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D138" s="23" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="139" spans="4:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="P139" s="24" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="140" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E140" s="22" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="141" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="E141" s="22" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="141" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E141" s="22" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="142" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E142" s="22" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="143" spans="4:16" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="143" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E143" s="22" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="144" spans="4:16" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="144" spans="4:16" x14ac:dyDescent="0.3">
       <c r="E144" s="22" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E145" s="22" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E146" s="22" t="s">
         <v>599</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10998,45 +11022,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="25" customWidth="1"/>
     <col min="7" max="7" width="14" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>574</v>
       </c>
       <c r="C2" t="s">
-        <v>632</v>
+        <v>897</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>604</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>585</v>
       </c>
@@ -11047,13 +11071,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>577</v>
       </c>
@@ -11061,13 +11085,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>578</v>
       </c>
@@ -11075,13 +11099,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>579</v>
       </c>
@@ -11089,13 +11113,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>580</v>
       </c>
@@ -11103,18 +11127,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>581</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E9" s="25">
         <v>1</v>
@@ -11123,21 +11147,21 @@
         <v>6</v>
       </c>
       <c r="G9" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="H9" t="s">
+        <v>877</v>
+      </c>
+      <c r="I9" t="s">
         <v>876</v>
       </c>
-      <c r="I9" t="s">
-        <v>880</v>
-      </c>
-      <c r="J9" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>584</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E10" s="25">
         <v>1</v>
@@ -11146,21 +11170,21 @@
         <v>8</v>
       </c>
       <c r="G10" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="H10" t="s">
+        <v>877</v>
+      </c>
+      <c r="I10" t="s">
         <v>876</v>
       </c>
-      <c r="I10" t="s">
-        <v>880</v>
-      </c>
-      <c r="J10" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E11" s="25">
         <v>1</v>
@@ -11169,73 +11193,80 @@
         <v>8</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>582</v>
       </c>
       <c r="C12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E12" s="25">
         <v>3</v>
       </c>
       <c r="F12" s="25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G12" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="H12" t="s">
+        <v>877</v>
+      </c>
+      <c r="I12" t="s">
         <v>876</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="I12" t="s">
-        <v>880</v>
-      </c>
-      <c r="J12" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>583</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E13" s="25">
         <v>3</v>
       </c>
       <c r="F13" s="25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G13" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="H13" t="s">
+        <v>877</v>
+      </c>
+      <c r="I13" t="s">
         <v>876</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>638</v>
-      </c>
-      <c r="I13" t="s">
-        <v>880</v>
-      </c>
-      <c r="J13" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>639</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27">
+        <v>41</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="H14" t="s">
+        <v>877</v>
+      </c>
+      <c r="I14" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>586</v>
       </c>
@@ -11246,10 +11277,13 @@
         <v>1</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>602</v>
       </c>
@@ -11257,10 +11291,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>603</v>
       </c>
@@ -11268,10 +11305,13 @@
         <v>1</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>520</v>
       </c>
@@ -11279,10 +11319,13 @@
         <v>1</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>180</v>
       </c>
@@ -11290,10 +11333,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>538</v>
       </c>
@@ -11301,13 +11347,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>873</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>528</v>
       </c>
@@ -11315,137 +11364,161 @@
         <v>1</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E23" s="25">
         <v>1</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E24" s="25">
         <v>1</v>
       </c>
+      <c r="F24" s="27">
+        <v>6</v>
+      </c>
       <c r="G24" s="25" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E25" s="25">
         <v>1</v>
       </c>
+      <c r="F25" s="27">
+        <v>6</v>
+      </c>
       <c r="G25" s="25" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>616</v>
       </c>
       <c r="C26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E26" s="25">
         <v>1</v>
       </c>
+      <c r="F26" s="27">
+        <v>6</v>
+      </c>
       <c r="G26" s="25" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>615</v>
       </c>
       <c r="C27" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E27" s="25">
         <v>1</v>
       </c>
+      <c r="F27" s="27">
+        <v>8</v>
+      </c>
       <c r="G27" s="25" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E28" s="25">
         <v>2</v>
       </c>
+      <c r="F28" s="27">
+        <v>10</v>
+      </c>
       <c r="G28" s="25" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>576</v>
       </c>
       <c r="C29" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E29" s="25">
         <v>1</v>
       </c>
-      <c r="F29" s="25" t="s">
-        <v>642</v>
+      <c r="F29" s="25">
+        <v>12</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
+      </c>
+      <c r="H29" t="s">
+        <v>877</v>
       </c>
       <c r="I29" t="s">
-        <v>880</v>
-      </c>
-      <c r="J29" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E30" s="25">
         <v>2</v>
       </c>
+      <c r="F30" s="25" t="s">
+        <v>639</v>
+      </c>
       <c r="G30" s="25" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -11453,182 +11526,209 @@
         <v>588</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E32" s="25">
         <v>1</v>
       </c>
+      <c r="F32" s="27">
+        <v>8</v>
+      </c>
       <c r="G32" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>589</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E33" s="25">
         <v>1</v>
       </c>
+      <c r="F33" s="27">
+        <v>8</v>
+      </c>
       <c r="G33" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>590</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E34" s="25">
         <v>2</v>
       </c>
+      <c r="F34" s="27">
+        <v>11</v>
+      </c>
       <c r="G34" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>587</v>
       </c>
       <c r="C35" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E35" s="25">
         <v>2</v>
       </c>
+      <c r="F35" s="27">
+        <v>12</v>
+      </c>
       <c r="G35" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E36" s="25">
         <v>3</v>
       </c>
+      <c r="F36" s="27" t="s">
+        <v>893</v>
+      </c>
       <c r="G36" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E37" s="25">
         <v>3</v>
       </c>
+      <c r="F37" s="27">
+        <v>24</v>
+      </c>
       <c r="G37" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E38" s="25">
         <v>4</v>
       </c>
+      <c r="F38" s="27" t="s">
+        <v>893</v>
+      </c>
       <c r="G38" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E39" s="25">
         <v>5</v>
       </c>
+      <c r="F39" s="27" t="s">
+        <v>893</v>
+      </c>
       <c r="G39" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>640</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E41" s="25">
         <v>1</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>591</v>
       </c>
@@ -11636,10 +11736,13 @@
         <v>1</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>592</v>
       </c>
@@ -11647,10 +11750,13 @@
         <v>1</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>601</v>
       </c>
@@ -11658,69 +11764,82 @@
         <v>1</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>639</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>892</v>
+      </c>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F46" s="27">
+        <v>4</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>599</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E47" s="25">
         <v>1</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F47" s="27">
+        <v>4</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C48" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E48" s="25">
         <v>1</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>642</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>638</v>
+        <v>639</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="H48" t="s">
+        <v>877</v>
       </c>
       <c r="I48" t="s">
-        <v>880</v>
-      </c>
-      <c r="J48" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>593</v>
       </c>
@@ -11729,142 +11848,181 @@
       </c>
       <c r="C50"/>
       <c r="D50" s="25" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E50" s="25">
         <v>1</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>873</v>
       </c>
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51" t="s">
         <v>595</v>
       </c>
       <c r="C51"/>
       <c r="D51" s="25" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E51" s="25">
         <v>1</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>873</v>
       </c>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52" t="s">
         <v>596</v>
       </c>
       <c r="C52"/>
       <c r="D52" s="25" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E52" s="25">
         <v>1</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>873</v>
       </c>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53"/>
       <c r="B53" t="s">
         <v>597</v>
       </c>
       <c r="C53"/>
       <c r="D53" s="25" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E53" s="25">
         <v>1</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>873</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54"/>
       <c r="B54" t="s">
         <v>600</v>
       </c>
       <c r="C54"/>
       <c r="D54" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E54" s="25">
         <v>1</v>
       </c>
-      <c r="F54" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>638</v>
+      <c r="F54" s="25">
+        <v>8</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>874</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55"/>
       <c r="B55" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C55"/>
       <c r="D55" s="25" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E55" s="25">
         <v>2</v>
       </c>
+      <c r="F55" s="27">
+        <v>12</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>894</v>
+      </c>
+      <c r="H55" t="s">
+        <v>877</v>
+      </c>
       <c r="I55" t="s">
-        <v>880</v>
-      </c>
-      <c r="J55" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
+        <v>887</v>
+      </c>
+      <c r="C56" t="s">
+        <v>888</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="C56" t="s">
-        <v>892</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>894</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>891</v>
+      <c r="F56" s="25">
+        <v>24</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="H56" t="s">
+        <v>877</v>
       </c>
       <c r="I56" t="s">
-        <v>880</v>
-      </c>
-      <c r="J56" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57"/>
       <c r="B57" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C57"/>
       <c r="D57" s="25" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E57" s="25">
         <v>2</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>892</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
     </row>
-    <row r="59" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>612</v>
       </c>
@@ -11872,94 +12030,95 @@
         <v>613</v>
       </c>
       <c r="C59"/>
-      <c r="F59" s="25" t="s">
-        <v>642</v>
-      </c>
+      <c r="F59" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="G59" s="27"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
     </row>
-    <row r="60" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60"/>
       <c r="B60" t="s">
         <v>614</v>
       </c>
       <c r="C60"/>
-      <c r="F60" s="25" t="s">
-        <v>642</v>
-      </c>
+      <c r="F60" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="G60" s="27"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
     </row>
-    <row r="61" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61"/>
       <c r="B61" t="s">
         <v>615</v>
       </c>
       <c r="C61" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E61" s="25">
         <v>1</v>
       </c>
-      <c r="H61" s="25" t="s">
-        <v>638</v>
-      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
     </row>
-    <row r="62" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62"/>
       <c r="B62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C62"/>
       <c r="D62" s="25" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E62" s="25">
         <v>3</v>
       </c>
-      <c r="H62" s="25" t="s">
-        <v>638</v>
-      </c>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63"/>
       <c r="B63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C63"/>
       <c r="D63" s="25" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E63" s="25">
         <v>3</v>
       </c>
-      <c r="H63" s="25" t="s">
-        <v>638</v>
-      </c>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+    </row>
+    <row r="66" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>617</v>
       </c>
@@ -11968,38 +12127,39 @@
       </c>
       <c r="C66"/>
       <c r="D66" s="25" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E66" s="25">
         <v>1</v>
       </c>
-      <c r="H66" s="25" t="s">
-        <v>638</v>
-      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
     </row>
-    <row r="67" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67"/>
       <c r="B67" t="s">
         <v>619</v>
       </c>
       <c r="C67"/>
       <c r="D67" s="25" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E67" s="25">
         <v>1</v>
       </c>
-      <c r="H67" s="25" t="s">
-        <v>638</v>
-      </c>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12012,28 +12172,28 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="26" t="s">
+    <row r="1" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
@@ -12050,7 +12210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
@@ -12073,7 +12233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
@@ -12096,7 +12256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
@@ -12116,7 +12276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
@@ -12136,7 +12296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
@@ -12159,7 +12319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
@@ -12182,7 +12342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>57</v>
       </c>
@@ -12202,7 +12362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>60</v>
       </c>
@@ -12220,7 +12380,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
         <v>63</v>
       </c>
@@ -12243,7 +12403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>67</v>
       </c>
@@ -12263,7 +12423,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="6" t="s">
         <v>70</v>
       </c>
@@ -12283,7 +12443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="6" t="s">
         <v>72</v>
       </c>
@@ -12303,7 +12463,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>76</v>
       </c>
@@ -12323,7 +12483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
         <v>80</v>
       </c>
@@ -12346,7 +12506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>83</v>
       </c>
@@ -12369,7 +12529,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>88</v>
       </c>
@@ -12390,8 +12550,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>92</v>
       </c>
@@ -12414,7 +12574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -12437,7 +12597,7 @@
       </c>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>105</v>
       </c>
@@ -12459,7 +12619,7 @@
       </c>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>111</v>
       </c>
@@ -12477,7 +12637,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>115</v>
       </c>
@@ -12491,7 +12651,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>117</v>
       </c>
@@ -12505,7 +12665,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>119</v>
       </c>
@@ -12521,9 +12681,9 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>122</v>
       </c>
@@ -12543,7 +12703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>125</v>
       </c>
@@ -12554,7 +12714,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>128</v>
       </c>
@@ -12562,7 +12722,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>130</v>
       </c>
@@ -12570,7 +12730,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>132</v>
       </c>
@@ -12578,7 +12738,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>134</v>
       </c>
@@ -12586,7 +12746,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>136</v>
       </c>
@@ -12594,7 +12754,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>138</v>
       </c>
@@ -12602,7 +12762,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>140</v>
       </c>
@@ -12610,7 +12770,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>142</v>
       </c>
@@ -12618,7 +12778,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B41" s="14" t="s">
         <v>144</v>
       </c>
@@ -12626,7 +12786,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>146</v>
       </c>
@@ -12634,7 +12794,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>148</v>
       </c>
@@ -12642,7 +12802,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>150</v>
       </c>
@@ -12650,7 +12810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>152</v>
       </c>
@@ -12658,7 +12818,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>154</v>
       </c>
@@ -12666,7 +12826,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>156</v>
       </c>
@@ -12674,7 +12834,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B48" s="14" t="s">
         <v>158</v>
       </c>
@@ -12682,7 +12842,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="14" t="s">
         <v>160</v>
       </c>
@@ -12690,7 +12850,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="14" t="s">
         <v>162</v>
       </c>
@@ -12698,7 +12858,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="14" t="s">
         <v>164</v>
       </c>
@@ -12706,7 +12866,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>166</v>
       </c>
@@ -12714,7 +12874,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>168</v>
       </c>
@@ -12722,7 +12882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>169</v>
       </c>
@@ -12730,7 +12890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>170</v>
       </c>
@@ -12738,7 +12898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>171</v>
       </c>
@@ -12746,7 +12906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>172</v>
       </c>
@@ -12754,7 +12914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>173</v>
       </c>
@@ -12762,7 +12922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>174</v>
       </c>
@@ -12770,7 +12930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>175</v>
       </c>
@@ -12778,11 +12938,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:7" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12797,19 +12958,19 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="1" max="2" width="8.875" style="1"/>
     <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
         <v>187</v>
       </c>
@@ -12817,7 +12978,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C4" s="16" t="s">
         <v>176</v>
       </c>
@@ -12825,7 +12986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C5" s="16" t="s">
         <v>177</v>
       </c>
@@ -12837,7 +12998,7 @@
       </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C6" s="16" t="s">
         <v>178</v>
       </c>
@@ -12849,28 +13010,28 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C7" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D9" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
         <v>197</v>
       </c>
@@ -12884,7 +13045,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="F13" s="14" t="s">
         <v>201</v>
       </c>
@@ -12892,7 +13053,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="F14" s="14" t="s">
         <v>203</v>
       </c>
@@ -12900,7 +13061,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="F15" s="14" t="s">
         <v>205</v>
       </c>
@@ -12908,7 +13069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
         <v>206</v>
@@ -12917,21 +13078,21 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E17" s="14"/>
       <c r="F17" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E18" s="14"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
         <v>210</v>
       </c>
@@ -12945,7 +13106,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
         <v>201</v>
@@ -12954,7 +13115,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
         <v>203</v>
@@ -12963,7 +13124,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
         <v>205</v>
@@ -12972,7 +13133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
         <v>206</v>
@@ -12981,45 +13142,45 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E25" s="14"/>
       <c r="F25" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E26" s="14"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K30" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C31" s="3" t="s">
         <v>217</v>
       </c>
@@ -13035,7 +13196,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C32" s="3" t="s">
         <v>221</v>
       </c>
@@ -13051,7 +13212,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C33" s="3" t="s">
         <v>225</v>
       </c>
@@ -13070,12 +13231,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C35" s="3" t="s">
         <v>230</v>
       </c>
@@ -13083,7 +13244,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D36" s="1" t="s">
         <v>231</v>
       </c>
@@ -13091,7 +13252,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
         <v>232</v>
       </c>
@@ -13099,7 +13260,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D38" s="1" t="s">
         <v>233</v>
       </c>
@@ -13107,7 +13268,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>234</v>
       </c>
@@ -13115,32 +13276,32 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C45" s="3" t="s">
         <v>187</v>
       </c>
@@ -13148,7 +13309,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C46" s="16" t="s">
         <v>176</v>
       </c>
@@ -13156,7 +13317,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C47" s="16" t="s">
         <v>177</v>
       </c>
@@ -13164,7 +13325,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C48" s="16" t="s">
         <v>178</v>
       </c>
@@ -13172,23 +13333,23 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C49" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C50" s="3"/>
       <c r="D50" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C53" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D54" s="1" t="s">
         <v>197</v>
       </c>
@@ -13202,7 +13363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="s">
         <v>201</v>
@@ -13211,7 +13372,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
         <v>203</v>
@@ -13220,7 +13381,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="s">
         <v>205</v>
@@ -13229,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="s">
         <v>206</v>
@@ -13238,21 +13399,21 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E59" s="14"/>
       <c r="F59" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G59" s="13"/>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E60" s="14"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
         <v>210</v>
       </c>
@@ -13266,7 +13427,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F63" s="14" t="s">
         <v>201</v>
       </c>
@@ -13274,7 +13435,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F64" s="14" t="s">
         <v>203</v>
       </c>
@@ -13282,7 +13443,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F65" s="14" t="s">
         <v>205</v>
       </c>
@@ -13290,7 +13451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="s">
         <v>206</v>
@@ -13299,40 +13460,40 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E67" s="14"/>
       <c r="F67" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E68" s="14"/>
       <c r="F68" s="13"/>
       <c r="G68" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K71" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C72" s="3" t="s">
         <v>217</v>
       </c>
@@ -13348,7 +13509,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C73" s="19" t="s">
         <v>247</v>
       </c>
@@ -13363,7 +13524,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C74" s="3" t="s">
         <v>225</v>
       </c>
@@ -13379,7 +13540,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C75" s="3" t="s">
         <v>254</v>
       </c>
@@ -13398,64 +13559,64 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C76" s="3"/>
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="K76" s="14"/>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C77" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G77" s="14"/>
     </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C78" s="3"/>
       <c r="D78" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G78" s="14"/>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C79" s="3"/>
       <c r="E79" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G79" s="14"/>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C80" s="3"/>
       <c r="E80" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G80" s="14"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E81" s="1" t="s">
         <v>233</v>
       </c>
       <c r="G81" s="14"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E82" s="1" t="s">
         <v>260</v>
       </c>
       <c r="G82" s="14"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E83" s="1" t="s">
         <v>261</v>
       </c>
       <c r="G83" s="14"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C84" s="3"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>262</v>
       </c>
@@ -13463,39 +13624,39 @@
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E86" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E87" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E88" s="1" t="s">
         <v>260</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C89" s="3"/>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
     </row>
-    <row r="90" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="15" t="s">
         <v>263</v>
       </c>
       <c r="C90" s="19"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C91" s="3" t="s">
         <v>187</v>
       </c>
@@ -13503,7 +13664,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C92" s="16" t="s">
         <v>176</v>
       </c>
@@ -13511,7 +13672,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C93" s="16" t="s">
         <v>177</v>
       </c>
@@ -13519,7 +13680,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C94" s="16" t="s">
         <v>178</v>
       </c>
@@ -13527,23 +13688,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C95" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C96" s="3"/>
       <c r="D96" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C99" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D100" s="1" t="s">
         <v>197</v>
       </c>
@@ -13557,7 +13718,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="s">
         <v>201</v>
@@ -13566,7 +13727,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E102" s="14"/>
       <c r="F102" s="14" t="s">
         <v>203</v>
@@ -13575,7 +13736,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="s">
         <v>205</v>
@@ -13584,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="s">
         <v>206</v>
@@ -13593,26 +13754,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E105" s="14"/>
       <c r="F105" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G105" s="13"/>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E106" s="14"/>
       <c r="F106" s="13"/>
       <c r="G106" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D108" s="1" t="s">
         <v>210</v>
       </c>
@@ -13626,7 +13787,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F109" s="14" t="s">
         <v>201</v>
       </c>
@@ -13634,7 +13795,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F110" s="14" t="s">
         <v>203</v>
       </c>
@@ -13642,7 +13803,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F111" s="14" t="s">
         <v>205</v>
       </c>
@@ -13650,7 +13811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E112" s="14"/>
       <c r="F112" s="14" t="s">
         <v>206</v>
@@ -13659,40 +13820,40 @@
         <v>212</v>
       </c>
     </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E113" s="14"/>
       <c r="F113" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E114" s="14"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E115" s="14"/>
       <c r="F115" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G115" s="14"/>
     </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
       <c r="G116" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E117" s="14"/>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
     </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D118" s="1" t="s">
         <v>269</v>
       </c>
@@ -13706,7 +13867,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F119" s="14" t="s">
         <v>201</v>
       </c>
@@ -13714,7 +13875,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F120" s="14" t="s">
         <v>203</v>
       </c>
@@ -13722,7 +13883,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F121" s="14" t="s">
         <v>205</v>
       </c>
@@ -13730,7 +13891,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E122" s="14"/>
       <c r="F122" s="14" t="s">
         <v>206</v>
@@ -13739,36 +13900,36 @@
         <v>212</v>
       </c>
     </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F123" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G123" s="13"/>
     </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F124" s="13"/>
       <c r="G124" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F125" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G125" s="14"/>
     </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F126" s="14"/>
       <c r="G126" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K127" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C128" s="3" t="s">
         <v>217</v>
       </c>
@@ -13784,7 +13945,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C129" s="16" t="s">
         <v>247</v>
       </c>
@@ -13799,7 +13960,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C130" s="16" t="s">
         <v>225</v>
       </c>
@@ -13814,7 +13975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C131" s="3" t="s">
         <v>254</v>
       </c>
@@ -13833,51 +13994,51 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C132" s="3"/>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
     </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C133" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G133" s="14"/>
     </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C134" s="3"/>
       <c r="D134" s="1" t="s">
         <v>280</v>
       </c>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C135" s="3"/>
       <c r="E135" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G135" s="14"/>
     </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C136" s="3"/>
       <c r="E136" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G136" s="14"/>
     </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E137" s="1" t="s">
         <v>233</v>
       </c>
       <c r="G137" s="14"/>
     </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E138" s="1" t="s">
         <v>281</v>
       </c>
       <c r="G138" s="14"/>
     </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D139" s="1" t="s">
         <v>282</v>
       </c>
@@ -13885,14 +14046,14 @@
       <c r="F139" s="14"/>
       <c r="G139" s="14"/>
     </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E140" s="1" t="s">
         <v>283</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
     </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C141" s="3"/>
       <c r="E141" s="1" t="s">
         <v>232</v>
@@ -13900,47 +14061,47 @@
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E142" s="1" t="s">
         <v>284</v>
       </c>
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E143" s="1" t="s">
         <v>285</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D144" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.15">
       <c r="E145" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.15">
       <c r="E146" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.15">
       <c r="E147" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="149" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B149" s="15" t="s">
         <v>287</v>
       </c>
       <c r="C149" s="19"/>
     </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C150" s="3" t="s">
         <v>187</v>
       </c>
@@ -13948,7 +14109,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C151" s="16" t="s">
         <v>176</v>
       </c>
@@ -13956,7 +14117,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C152" s="16" t="s">
         <v>177</v>
       </c>
@@ -13964,7 +14125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C153" s="16" t="s">
         <v>178</v>
       </c>
@@ -13972,29 +14133,29 @@
         <v>179</v>
       </c>
     </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C154" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C155" s="3"/>
       <c r="D155" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.15">
       <c r="P156" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="158" spans="2:17" ht="26" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:17" ht="26.25" x14ac:dyDescent="0.15">
       <c r="C158" s="3" t="s">
         <v>196</v>
       </c>
       <c r="Q158" s="20"/>
     </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D159" s="1" t="s">
         <v>197</v>
       </c>
@@ -14008,7 +14169,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.15">
       <c r="E160" s="14"/>
       <c r="F160" s="14" t="s">
         <v>201</v>
@@ -14017,7 +14178,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E161" s="14"/>
       <c r="F161" s="14" t="s">
         <v>203</v>
@@ -14026,7 +14187,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E162" s="14"/>
       <c r="F162" s="14" t="s">
         <v>205</v>
@@ -14035,7 +14196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E163" s="14"/>
       <c r="F163" s="14" t="s">
         <v>206</v>
@@ -14044,26 +14205,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E164" s="14"/>
       <c r="F164" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G164" s="13"/>
     </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E165" s="14"/>
       <c r="F165" s="13"/>
       <c r="G165" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E166" s="14"/>
       <c r="F166" s="14"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D167" s="1" t="s">
         <v>210</v>
       </c>
@@ -14077,7 +14238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F168" s="14" t="s">
         <v>201</v>
       </c>
@@ -14085,7 +14246,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F169" s="14" t="s">
         <v>203</v>
       </c>
@@ -14093,7 +14254,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F170" s="14" t="s">
         <v>205</v>
       </c>
@@ -14101,7 +14262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E171" s="14"/>
       <c r="F171" s="14" t="s">
         <v>206</v>
@@ -14110,40 +14271,40 @@
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E172" s="14"/>
       <c r="F172" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G172" s="13"/>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E173" s="14"/>
       <c r="F173" s="13"/>
       <c r="G173" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E174" s="14"/>
       <c r="F174" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G174" s="14"/>
     </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E175" s="14"/>
       <c r="F175" s="14"/>
       <c r="G175" s="14" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E176" s="14"/>
       <c r="F176" s="14"/>
       <c r="G176" s="14"/>
     </row>
-    <row r="177" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D177" s="1" t="s">
         <v>269</v>
       </c>
@@ -14157,7 +14318,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F178" s="14" t="s">
         <v>201</v>
       </c>
@@ -14165,7 +14326,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="179" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F179" s="14" t="s">
         <v>203</v>
       </c>
@@ -14173,7 +14334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="180" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F180" s="14" t="s">
         <v>205</v>
       </c>
@@ -14181,7 +14342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E181" s="14"/>
       <c r="F181" s="14" t="s">
         <v>206</v>
@@ -14190,41 +14351,41 @@
         <v>212</v>
       </c>
     </row>
-    <row r="182" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E182" s="14"/>
       <c r="F182" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G182" s="13"/>
     </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F183" s="13"/>
       <c r="G183" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="184" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F184" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G184" s="14"/>
     </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F185" s="14"/>
       <c r="G185" s="14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F186" s="14"/>
       <c r="G186" s="14"/>
     </row>
-    <row r="188" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K188" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="189" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C189" s="3" t="s">
         <v>217</v>
       </c>
@@ -14237,7 +14398,7 @@
       <c r="F189" s="14"/>
       <c r="G189" s="14"/>
     </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C190" s="16" t="s">
         <v>247</v>
       </c>
@@ -14250,7 +14411,7 @@
       <c r="F190" s="14"/>
       <c r="G190" s="14"/>
     </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C191" s="16" t="s">
         <v>225</v>
       </c>
@@ -14262,7 +14423,7 @@
       </c>
       <c r="G191" s="14"/>
     </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C192" s="3" t="s">
         <v>254</v>
       </c>
@@ -14277,63 +14438,63 @@
         <v>305</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C193" s="3"/>
       <c r="F193" s="14"/>
       <c r="G193" s="14"/>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C194" s="3"/>
       <c r="F194" s="14"/>
       <c r="G194" s="14"/>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C195" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G195" s="14"/>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C196" s="3"/>
       <c r="D196" s="1" t="s">
         <v>280</v>
       </c>
       <c r="G196" s="14"/>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C197" s="3"/>
       <c r="E197" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G197" s="14"/>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C198" s="3"/>
       <c r="E198" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G198" s="14"/>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C199" s="3"/>
       <c r="E199" s="1" t="s">
         <v>306</v>
       </c>
       <c r="G199" s="14"/>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E200" s="1" t="s">
         <v>307</v>
       </c>
       <c r="G200" s="14"/>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E201" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G201" s="14"/>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D202" s="1" t="s">
         <v>309</v>
       </c>
@@ -14341,14 +14502,14 @@
       <c r="F202" s="14"/>
       <c r="G202" s="14"/>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E203" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F203" s="14"/>
       <c r="G203" s="14"/>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C204" s="3"/>
       <c r="E204" s="1" t="s">
         <v>310</v>
@@ -14356,69 +14517,69 @@
       <c r="F204" s="14"/>
       <c r="G204" s="14"/>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E205" s="1" t="s">
         <v>306</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="14"/>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E206" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D207" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E208" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E209" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E210" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E211" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D212" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E213" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E214" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E215" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="218" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B218" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C219" s="3" t="s">
         <v>187</v>
       </c>
@@ -14426,7 +14587,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C220" s="16" t="s">
         <v>176</v>
       </c>
@@ -14434,7 +14595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C221" s="16" t="s">
         <v>177</v>
       </c>
@@ -14442,7 +14603,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C222" s="16" t="s">
         <v>178</v>
       </c>
@@ -14450,20 +14611,20 @@
         <v>182</v>
       </c>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C223" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C224" s="3"/>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C227" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D228" s="1" t="s">
         <v>197</v>
       </c>
@@ -14477,7 +14638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E229" s="14"/>
       <c r="F229" s="14" t="s">
         <v>201</v>
@@ -14486,7 +14647,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E230" s="14"/>
       <c r="F230" s="14" t="s">
         <v>203</v>
@@ -14495,7 +14656,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E231" s="14"/>
       <c r="F231" s="14" t="s">
         <v>205</v>
@@ -14504,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E232" s="14"/>
       <c r="F232" s="14" t="s">
         <v>206</v>
@@ -14513,26 +14674,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E233" s="14"/>
       <c r="F233" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G233" s="13"/>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E234" s="14"/>
       <c r="F234" s="13"/>
       <c r="G234" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E235" s="14"/>
       <c r="F235" s="14"/>
       <c r="G235" s="14"/>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D236" s="1" t="s">
         <v>210</v>
       </c>
@@ -14546,7 +14707,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F237" s="14" t="s">
         <v>201</v>
       </c>
@@ -14554,7 +14715,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F238" s="14" t="s">
         <v>203</v>
       </c>
@@ -14562,7 +14723,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F239" s="14" t="s">
         <v>205</v>
       </c>
@@ -14570,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E240" s="14"/>
       <c r="F240" s="14" t="s">
         <v>206</v>
@@ -14579,45 +14740,45 @@
         <v>212</v>
       </c>
     </row>
-    <row r="241" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E241" s="14"/>
       <c r="F241" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G241" s="13"/>
     </row>
-    <row r="242" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E242" s="14"/>
       <c r="F242" s="13"/>
       <c r="G242" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="243" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E243" s="14"/>
       <c r="F243" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G243" s="14"/>
     </row>
-    <row r="244" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E244" s="14"/>
       <c r="F244" s="14"/>
       <c r="G244" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="245" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E245" s="14"/>
       <c r="F245" s="14"/>
       <c r="G245" s="14"/>
     </row>
-    <row r="247" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K247" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="248" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C248" s="3" t="s">
         <v>217</v>
       </c>
@@ -14633,7 +14794,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C249" s="16" t="s">
         <v>247</v>
       </c>
@@ -14649,7 +14810,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C250" s="16" t="s">
         <v>225</v>
       </c>
@@ -14667,7 +14828,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="251" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C251" s="16" t="s">
         <v>254</v>
       </c>
@@ -14684,52 +14845,52 @@
         <v>279</v>
       </c>
     </row>
-    <row r="252" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C252" s="16"/>
       <c r="F252" s="14"/>
       <c r="G252" s="14"/>
     </row>
-    <row r="253" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C253" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G253" s="14"/>
     </row>
-    <row r="254" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C254" s="3"/>
       <c r="D254" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G254" s="14"/>
     </row>
-    <row r="255" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C255" s="3"/>
       <c r="E255" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G255" s="14"/>
     </row>
-    <row r="256" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E256" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G256" s="14"/>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E257" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F257" s="14"/>
       <c r="G257" s="14"/>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E258" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F258" s="14"/>
       <c r="G258" s="14"/>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C259" s="3"/>
       <c r="D259" s="1" t="s">
         <v>327</v>
@@ -14737,34 +14898,34 @@
       <c r="F259" s="14"/>
       <c r="G259" s="14"/>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E260" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F260" s="14"/>
       <c r="G260" s="14"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E261" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E262" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E263" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="265" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B265" s="15" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C266" s="3" t="s">
         <v>187</v>
       </c>
@@ -14772,7 +14933,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C267" s="16" t="s">
         <v>176</v>
       </c>
@@ -14780,7 +14941,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C268" s="16" t="s">
         <v>177</v>
       </c>
@@ -14788,7 +14949,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C269" s="16" t="s">
         <v>178</v>
       </c>
@@ -14796,23 +14957,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C270" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C271" s="3"/>
       <c r="D271" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C274" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D275" s="1" t="s">
         <v>197</v>
       </c>
@@ -14826,7 +14987,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E276" s="14"/>
       <c r="F276" s="14" t="s">
         <v>201</v>
@@ -14835,7 +14996,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E277" s="14"/>
       <c r="F277" s="14" t="s">
         <v>203</v>
@@ -14844,7 +15005,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E278" s="14"/>
       <c r="F278" s="14" t="s">
         <v>205</v>
@@ -14853,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E279" s="14"/>
       <c r="F279" s="14" t="s">
         <v>206</v>
@@ -14862,26 +15023,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E280" s="14"/>
       <c r="F280" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G280" s="13"/>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E281" s="14"/>
       <c r="F281" s="13"/>
       <c r="G281" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E282" s="14"/>
       <c r="F282" s="14"/>
       <c r="G282" s="14"/>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D283" s="1" t="s">
         <v>210</v>
       </c>
@@ -14895,7 +15056,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F284" s="14" t="s">
         <v>201</v>
       </c>
@@ -14903,7 +15064,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F285" s="14" t="s">
         <v>203</v>
       </c>
@@ -14911,7 +15072,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F286" s="14" t="s">
         <v>205</v>
       </c>
@@ -14919,7 +15080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E287" s="14"/>
       <c r="F287" s="14" t="s">
         <v>206</v>
@@ -14928,47 +15089,47 @@
         <v>212</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E288" s="14"/>
       <c r="F288" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G288" s="13"/>
     </row>
-    <row r="289" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E289" s="14"/>
       <c r="F289" s="13"/>
       <c r="G289" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="290" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E290" s="14"/>
       <c r="F290" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G290" s="14"/>
     </row>
-    <row r="291" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E291" s="14"/>
       <c r="F291" s="14"/>
       <c r="G291" s="14" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="292" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E292" s="14"/>
       <c r="F292" s="14"/>
       <c r="G292" s="14"/>
     </row>
-    <row r="293" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F293" s="14"/>
       <c r="G293" s="14"/>
       <c r="K293" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="294" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C294" s="3" t="s">
         <v>217</v>
       </c>
@@ -14984,7 +15145,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="295" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C295" s="16" t="s">
         <v>247</v>
       </c>
@@ -15000,7 +15161,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="296" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C296" s="16" t="s">
         <v>225</v>
       </c>
@@ -15015,7 +15176,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="297" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C297" s="3" t="s">
         <v>254</v>
       </c>
@@ -15033,7 +15194,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="298" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C298" s="3" t="s">
         <v>343</v>
       </c>
@@ -15050,59 +15211,59 @@
         <v>224</v>
       </c>
     </row>
-    <row r="300" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C300" s="3"/>
       <c r="F300" s="14"/>
       <c r="G300" s="14"/>
     </row>
-    <row r="301" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C301" s="3"/>
       <c r="F301" s="14"/>
       <c r="G301" s="14"/>
     </row>
-    <row r="302" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C302" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G302" s="14"/>
     </row>
-    <row r="303" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C303" s="3"/>
       <c r="D303" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G303" s="14"/>
     </row>
-    <row r="304" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C304" s="3"/>
       <c r="E304" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G304" s="14"/>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C305" s="3"/>
       <c r="E305" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G305" s="14"/>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E306" s="1" t="s">
         <v>346</v>
       </c>
       <c r="G306" s="14"/>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E307" s="1" t="s">
         <v>347</v>
       </c>
       <c r="G307" s="14"/>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G308" s="14"/>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C309" s="3"/>
       <c r="D309" s="1" t="s">
         <v>262</v>
@@ -15111,26 +15272,26 @@
       <c r="F309" s="14"/>
       <c r="G309" s="14"/>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E310" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F310" s="14"/>
       <c r="G310" s="14"/>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E311" s="1" t="s">
         <v>349</v>
       </c>
       <c r="F311" s="14"/>
       <c r="G311" s="14"/>
     </row>
-    <row r="313" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B313" s="15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C314" s="3" t="s">
         <v>187</v>
       </c>
@@ -15138,7 +15299,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C315" s="16" t="s">
         <v>176</v>
       </c>
@@ -15146,7 +15307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C316" s="16" t="s">
         <v>177</v>
       </c>
@@ -15154,7 +15315,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C317" s="16" t="s">
         <v>178</v>
       </c>
@@ -15162,23 +15323,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C318" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C319" s="3"/>
       <c r="D319" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="322" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C322" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="323" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D323" s="1" t="s">
         <v>197</v>
       </c>
@@ -15193,7 +15354,7 @@
       </c>
       <c r="Q323" s="14"/>
     </row>
-    <row r="324" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E324" s="14"/>
       <c r="F324" s="14" t="s">
         <v>201</v>
@@ -15202,7 +15363,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="325" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E325" s="14"/>
       <c r="F325" s="14" t="s">
         <v>203</v>
@@ -15211,7 +15372,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="326" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E326" s="14"/>
       <c r="F326" s="14" t="s">
         <v>205</v>
@@ -15220,7 +15381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E327" s="14"/>
       <c r="F327" s="14" t="s">
         <v>206</v>
@@ -15229,26 +15390,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="328" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E328" s="14"/>
       <c r="F328" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G328" s="13"/>
     </row>
-    <row r="329" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E329" s="14"/>
       <c r="F329" s="13"/>
       <c r="G329" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="330" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E330" s="14"/>
       <c r="F330" s="14"/>
       <c r="G330" s="14"/>
     </row>
-    <row r="331" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D331" s="1" t="s">
         <v>210</v>
       </c>
@@ -15262,7 +15423,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="332" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F332" s="14" t="s">
         <v>201</v>
       </c>
@@ -15270,7 +15431,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="333" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F333" s="14" t="s">
         <v>203</v>
       </c>
@@ -15278,7 +15439,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="334" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F334" s="14" t="s">
         <v>205</v>
       </c>
@@ -15286,7 +15447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E335" s="14"/>
       <c r="F335" s="14" t="s">
         <v>206</v>
@@ -15295,42 +15456,42 @@
         <v>212</v>
       </c>
     </row>
-    <row r="336" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E336" s="14"/>
       <c r="F336" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G336" s="13"/>
     </row>
-    <row r="337" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E337" s="14"/>
       <c r="F337" s="13"/>
       <c r="G337" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="338" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E338" s="14"/>
       <c r="F338" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G338" s="14"/>
     </row>
-    <row r="339" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E339" s="14"/>
       <c r="F339" s="14"/>
       <c r="G339" s="14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F340" s="14"/>
       <c r="G340" s="14"/>
       <c r="K340" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="341" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C341" s="3" t="s">
         <v>217</v>
       </c>
@@ -15346,7 +15507,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="342" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C342" s="16" t="s">
         <v>247</v>
       </c>
@@ -15361,7 +15522,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="343" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C343" s="16" t="s">
         <v>225</v>
       </c>
@@ -15380,53 +15541,53 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C344" s="3"/>
       <c r="G344" s="14"/>
     </row>
-    <row r="345" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C345" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G345" s="14"/>
     </row>
-    <row r="346" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C346" s="3"/>
       <c r="D346" s="1" t="s">
         <v>258</v>
       </c>
       <c r="G346" s="14"/>
     </row>
-    <row r="347" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C347" s="3"/>
       <c r="E347" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G347" s="14"/>
     </row>
-    <row r="348" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C348" s="3"/>
       <c r="E348" s="1" t="s">
         <v>232</v>
       </c>
       <c r="G348" s="14"/>
     </row>
-    <row r="349" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E349" s="1" t="s">
         <v>233</v>
       </c>
       <c r="G349" s="14"/>
     </row>
-    <row r="350" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E350" s="1" t="s">
         <v>234</v>
       </c>
       <c r="G350" s="14"/>
     </row>
-    <row r="351" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:11" x14ac:dyDescent="0.15">
       <c r="G351" s="14"/>
     </row>
-    <row r="352" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C352" s="3"/>
       <c r="D352" s="1" t="s">
         <v>262</v>
@@ -15435,14 +15596,14 @@
       <c r="F352" s="14"/>
       <c r="G352" s="14"/>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E353" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F353" s="14"/>
       <c r="G353" s="14"/>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E354" s="1" t="s">
         <v>359</v>
       </c>
@@ -15451,12 +15612,12 @@
       </c>
       <c r="G354" s="14"/>
     </row>
-    <row r="355" spans="3:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C355" s="15" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C356" s="3" t="s">
         <v>187</v>
       </c>
@@ -15464,7 +15625,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C357" s="16" t="s">
         <v>176</v>
       </c>
@@ -15472,7 +15633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C358" s="16" t="s">
         <v>177</v>
       </c>
@@ -15480,7 +15641,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C359" s="16" t="s">
         <v>178</v>
       </c>
@@ -15488,23 +15649,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C360" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C361" s="3"/>
       <c r="D361" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C364" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D365" s="1" t="s">
         <v>197</v>
       </c>
@@ -15518,7 +15679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E366" s="14"/>
       <c r="F366" s="14" t="s">
         <v>201</v>
@@ -15527,7 +15688,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E367" s="14"/>
       <c r="F367" s="14" t="s">
         <v>203</v>
@@ -15536,7 +15697,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E368" s="14"/>
       <c r="F368" s="14" t="s">
         <v>205</v>
@@ -15545,7 +15706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E369" s="14"/>
       <c r="F369" s="14" t="s">
         <v>206</v>
@@ -15554,26 +15715,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="370" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E370" s="14"/>
       <c r="F370" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G370" s="13"/>
     </row>
-    <row r="371" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E371" s="14"/>
       <c r="F371" s="13"/>
       <c r="G371" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="372" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E372" s="14"/>
       <c r="F372" s="14"/>
       <c r="G372" s="14"/>
     </row>
-    <row r="373" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D373" s="1" t="s">
         <v>210</v>
       </c>
@@ -15587,7 +15748,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="374" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F374" s="14" t="s">
         <v>201</v>
       </c>
@@ -15595,7 +15756,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="375" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F375" s="14" t="s">
         <v>203</v>
       </c>
@@ -15603,7 +15764,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="376" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F376" s="14" t="s">
         <v>205</v>
       </c>
@@ -15611,7 +15772,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="377" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E377" s="14"/>
       <c r="F377" s="14" t="s">
         <v>206</v>
@@ -15620,39 +15781,39 @@
         <v>212</v>
       </c>
     </row>
-    <row r="378" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E378" s="14"/>
       <c r="F378" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G378" s="13"/>
     </row>
-    <row r="379" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E379" s="14"/>
       <c r="F379" s="13"/>
       <c r="G379" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="380" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E380" s="14"/>
       <c r="F380" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G380" s="14"/>
     </row>
-    <row r="381" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E381" s="14"/>
       <c r="F381" s="14"/>
       <c r="G381" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="382" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E382" s="14"/>
       <c r="F382" s="14"/>
     </row>
-    <row r="383" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D383" s="1" t="s">
         <v>269</v>
       </c>
@@ -15666,7 +15827,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="384" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F384" s="14" t="s">
         <v>201</v>
       </c>
@@ -15674,7 +15835,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="385" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F385" s="14" t="s">
         <v>203</v>
       </c>
@@ -15682,7 +15843,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="386" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F386" s="14" t="s">
         <v>205</v>
       </c>
@@ -15690,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E387" s="14"/>
       <c r="F387" s="14" t="s">
         <v>206</v>
@@ -15699,45 +15860,45 @@
         <v>212</v>
       </c>
     </row>
-    <row r="388" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E388" s="14"/>
       <c r="F388" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G388" s="13"/>
     </row>
-    <row r="389" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E389" s="14"/>
       <c r="F389" s="13"/>
       <c r="G389" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="390" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E390" s="14"/>
       <c r="F390" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G390" s="14"/>
     </row>
-    <row r="391" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E391" s="14"/>
       <c r="F391" s="14"/>
       <c r="G391" s="14" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="392" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E392" s="14"/>
       <c r="F392" s="14"/>
     </row>
-    <row r="393" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F393" s="14"/>
       <c r="K393" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="394" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C394" s="3" t="s">
         <v>217</v>
       </c>
@@ -15750,7 +15911,7 @@
       <c r="F394" s="14"/>
       <c r="K394" s="14"/>
     </row>
-    <row r="395" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C395" s="16" t="s">
         <v>247</v>
       </c>
@@ -15761,7 +15922,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="396" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C396" s="16" t="s">
         <v>372</v>
       </c>
@@ -15772,7 +15933,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="397" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C397" s="16" t="s">
         <v>254</v>
       </c>
@@ -15786,48 +15947,48 @@
         <v>305</v>
       </c>
     </row>
-    <row r="398" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C398" s="3"/>
     </row>
-    <row r="399" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C399" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="400" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C400" s="3"/>
       <c r="D400" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="401" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C401" s="3"/>
       <c r="E401" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="402" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C402" s="3"/>
       <c r="E402" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="403" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E403" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="404" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E404" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="405" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E405" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="407" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C407" s="3"/>
       <c r="D407" s="1" t="s">
         <v>262</v>
@@ -15835,28 +15996,28 @@
       <c r="E407" s="14"/>
       <c r="F407" s="14"/>
     </row>
-    <row r="408" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E408" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F408" s="14"/>
     </row>
-    <row r="409" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E409" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="410" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E410" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="412" spans="3:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:6" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C412" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="413" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C413" s="3" t="s">
         <v>187</v>
       </c>
@@ -15864,7 +16025,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="414" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C414" s="16" t="s">
         <v>176</v>
       </c>
@@ -15872,7 +16033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="415" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C415" s="16" t="s">
         <v>177</v>
       </c>
@@ -15880,7 +16041,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="416" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C416" s="16" t="s">
         <v>178</v>
       </c>
@@ -15888,23 +16049,23 @@
         <v>182</v>
       </c>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C417" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C418" s="3"/>
       <c r="D418" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C421" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D422" s="1" t="s">
         <v>197</v>
       </c>
@@ -15918,7 +16079,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E423" s="14"/>
       <c r="F423" s="14" t="s">
         <v>201</v>
@@ -15927,7 +16088,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E424" s="14"/>
       <c r="F424" s="14" t="s">
         <v>203</v>
@@ -15936,7 +16097,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E425" s="14"/>
       <c r="F425" s="14" t="s">
         <v>205</v>
@@ -15945,7 +16106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E426" s="14"/>
       <c r="F426" s="14" t="s">
         <v>206</v>
@@ -15954,26 +16115,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E427" s="14"/>
       <c r="F427" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G427" s="13"/>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E428" s="14"/>
       <c r="F428" s="13"/>
       <c r="G428" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E429" s="14"/>
       <c r="F429" s="14"/>
       <c r="G429" s="14"/>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D430" s="1" t="s">
         <v>210</v>
       </c>
@@ -15987,7 +16148,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D431" s="1" t="s">
         <v>385</v>
       </c>
@@ -15998,7 +16159,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F432" s="14" t="s">
         <v>203</v>
       </c>
@@ -16006,7 +16167,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="433" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F433" s="14" t="s">
         <v>205</v>
       </c>
@@ -16014,7 +16175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E434" s="14"/>
       <c r="F434" s="14" t="s">
         <v>206</v>
@@ -16023,39 +16184,39 @@
         <v>212</v>
       </c>
     </row>
-    <row r="435" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E435" s="14"/>
       <c r="F435" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G435" s="13"/>
     </row>
-    <row r="436" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E436" s="14"/>
       <c r="F436" s="13"/>
       <c r="G436" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="437" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E437" s="14"/>
       <c r="F437" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G437" s="14"/>
     </row>
-    <row r="438" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E438" s="14"/>
       <c r="F438" s="14"/>
       <c r="G438" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="439" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E439" s="14"/>
       <c r="F439" s="14"/>
     </row>
-    <row r="440" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D440" s="1" t="s">
         <v>269</v>
       </c>
@@ -16069,7 +16230,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="441" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F441" s="14" t="s">
         <v>201</v>
       </c>
@@ -16077,7 +16238,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="442" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F442" s="14" t="s">
         <v>203</v>
       </c>
@@ -16085,7 +16246,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="443" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F443" s="14" t="s">
         <v>205</v>
       </c>
@@ -16093,7 +16254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E444" s="14"/>
       <c r="F444" s="14" t="s">
         <v>206</v>
@@ -16102,45 +16263,45 @@
         <v>212</v>
       </c>
     </row>
-    <row r="445" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E445" s="14"/>
       <c r="F445" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G445" s="13"/>
     </row>
-    <row r="446" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E446" s="14"/>
       <c r="F446" s="13"/>
       <c r="G446" s="13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="447" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E447" s="14"/>
       <c r="F447" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G447" s="14"/>
     </row>
-    <row r="448" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E448" s="14"/>
       <c r="F448" s="14"/>
       <c r="G448" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="449" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E449" s="14"/>
       <c r="F449" s="14"/>
     </row>
-    <row r="450" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F450" s="14"/>
       <c r="K450" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="451" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C451" s="3" t="s">
         <v>217</v>
       </c>
@@ -16155,7 +16316,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="452" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C452" s="16" t="s">
         <v>247</v>
       </c>
@@ -16169,7 +16330,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="453" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C453" s="16" t="s">
         <v>225</v>
       </c>
@@ -16183,7 +16344,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="454" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C454" s="16" t="s">
         <v>254</v>
       </c>
@@ -16200,59 +16361,59 @@
         <v>279</v>
       </c>
     </row>
-    <row r="455" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C455" s="3"/>
     </row>
-    <row r="456" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C456" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="457" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C457" s="3"/>
       <c r="D457" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="458" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C458" s="3"/>
       <c r="E458" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="459" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C459" s="3"/>
       <c r="E459" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="460" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E460" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="461" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E461" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="462" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E462" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="463" spans="3:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C463" s="16"/>
     </row>
-    <row r="464" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F464" s="14"/>
     </row>
-    <row r="466" spans="3:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C466" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C467" s="3" t="s">
         <v>187</v>
       </c>
@@ -16260,7 +16421,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C468" s="16" t="s">
         <v>176</v>
       </c>
@@ -16268,7 +16429,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C469" s="16" t="s">
         <v>177</v>
       </c>
@@ -16276,7 +16437,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C470" s="16" t="s">
         <v>178</v>
       </c>
@@ -16284,23 +16445,23 @@
         <v>182</v>
       </c>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C471" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C472" s="3"/>
       <c r="D472" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C475" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D476" s="1" t="s">
         <v>197</v>
       </c>
@@ -16314,7 +16475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E477" s="14"/>
       <c r="F477" s="14" t="s">
         <v>201</v>
@@ -16323,7 +16484,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E478" s="14"/>
       <c r="F478" s="14" t="s">
         <v>203</v>
@@ -16332,7 +16493,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E479" s="14"/>
       <c r="F479" s="14" t="s">
         <v>205</v>
@@ -16341,7 +16502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E480" s="14"/>
       <c r="F480" s="14" t="s">
         <v>206</v>
@@ -16350,26 +16511,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="481" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E481" s="14"/>
       <c r="F481" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G481" s="13"/>
     </row>
-    <row r="482" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E482" s="14"/>
       <c r="F482" s="13"/>
       <c r="G482" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="483" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E483" s="14"/>
       <c r="F483" s="14"/>
       <c r="G483" s="14"/>
     </row>
-    <row r="484" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D484" s="1" t="s">
         <v>210</v>
       </c>
@@ -16383,7 +16544,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="485" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F485" s="14" t="s">
         <v>201</v>
       </c>
@@ -16391,7 +16552,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="486" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F486" s="14" t="s">
         <v>203</v>
       </c>
@@ -16399,7 +16560,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="487" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F487" s="14" t="s">
         <v>205</v>
       </c>
@@ -16407,7 +16568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E488" s="14"/>
       <c r="F488" s="14" t="s">
         <v>206</v>
@@ -16416,42 +16577,42 @@
         <v>212</v>
       </c>
     </row>
-    <row r="489" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E489" s="14"/>
       <c r="F489" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G489" s="13"/>
     </row>
-    <row r="490" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E490" s="14"/>
       <c r="F490" s="13"/>
       <c r="G490" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="491" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E491" s="14"/>
       <c r="F491" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G491" s="14"/>
     </row>
-    <row r="492" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E492" s="14"/>
       <c r="F492" s="14"/>
       <c r="G492" s="14" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="493" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E493" s="14"/>
       <c r="F493" s="14"/>
       <c r="K493" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="494" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C494" s="3" t="s">
         <v>217</v>
       </c>
@@ -16466,7 +16627,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="495" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C495" s="16" t="s">
         <v>247</v>
       </c>
@@ -16480,7 +16641,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="496" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C496" s="16" t="s">
         <v>225</v>
       </c>
@@ -16494,7 +16655,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="497" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C497" s="16" t="s">
         <v>411</v>
       </c>
@@ -16513,56 +16674,56 @@
         <v>406</v>
       </c>
     </row>
-    <row r="498" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E498" s="14"/>
       <c r="F498" s="14"/>
       <c r="G498" s="14"/>
     </row>
-    <row r="499" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C499" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="500" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C500" s="3"/>
       <c r="D500" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="501" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C501" s="3"/>
       <c r="E501" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="502" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C502" s="3"/>
       <c r="E502" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="503" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C503" s="3"/>
       <c r="E503" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="504" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E504" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="505" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E505" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="506" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C506" s="15" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="507" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C507" s="3" t="s">
         <v>187</v>
       </c>
@@ -16570,7 +16731,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="508" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C508" s="16" t="s">
         <v>176</v>
       </c>
@@ -16578,7 +16739,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="509" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C509" s="16" t="s">
         <v>177</v>
       </c>
@@ -16586,7 +16747,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="510" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C510" s="16" t="s">
         <v>178</v>
       </c>
@@ -16594,23 +16755,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="511" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C511" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="512" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C512" s="3"/>
       <c r="D512" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C515" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D516" s="1" t="s">
         <v>197</v>
       </c>
@@ -16624,7 +16785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E517" s="14"/>
       <c r="F517" s="14" t="s">
         <v>201</v>
@@ -16633,7 +16794,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E518" s="14"/>
       <c r="F518" s="14" t="s">
         <v>203</v>
@@ -16642,7 +16803,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E519" s="14"/>
       <c r="F519" s="14" t="s">
         <v>205</v>
@@ -16651,7 +16812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E520" s="14"/>
       <c r="F520" s="14" t="s">
         <v>206</v>
@@ -16660,26 +16821,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E521" s="14"/>
       <c r="F521" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G521" s="13"/>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E522" s="14"/>
       <c r="F522" s="13"/>
       <c r="G522" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E523" s="14"/>
       <c r="F523" s="14"/>
       <c r="G523" s="14"/>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D524" s="1" t="s">
         <v>210</v>
       </c>
@@ -16693,7 +16854,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F525" s="14" t="s">
         <v>201</v>
       </c>
@@ -16701,7 +16862,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F526" s="14" t="s">
         <v>203</v>
       </c>
@@ -16709,7 +16870,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F527" s="14" t="s">
         <v>205</v>
       </c>
@@ -16717,7 +16878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E528" s="14"/>
       <c r="F528" s="14" t="s">
         <v>206</v>
@@ -16726,39 +16887,39 @@
         <v>212</v>
       </c>
     </row>
-    <row r="529" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E529" s="14"/>
       <c r="F529" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G529" s="13"/>
     </row>
-    <row r="530" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E530" s="14"/>
       <c r="F530" s="13"/>
       <c r="G530" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="531" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E531" s="14"/>
       <c r="F531" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G531" s="14"/>
     </row>
-    <row r="532" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E532" s="14"/>
       <c r="F532" s="14"/>
       <c r="G532" s="14" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="533" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E533" s="14"/>
       <c r="F533" s="14"/>
     </row>
-    <row r="534" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D534" s="1" t="s">
         <v>269</v>
       </c>
@@ -16772,7 +16933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="535" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D535" s="1" t="s">
         <v>426</v>
       </c>
@@ -16783,7 +16944,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="536" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F536" s="14" t="s">
         <v>203</v>
       </c>
@@ -16791,7 +16952,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="537" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F537" s="14" t="s">
         <v>205</v>
       </c>
@@ -16799,7 +16960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E538" s="14"/>
       <c r="F538" s="14" t="s">
         <v>206</v>
@@ -16808,19 +16969,19 @@
         <v>212</v>
       </c>
     </row>
-    <row r="539" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F539" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G539" s="13"/>
     </row>
-    <row r="540" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F540" s="13"/>
       <c r="G540" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="542" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D542" s="1" t="s">
         <v>427</v>
       </c>
@@ -16834,7 +16995,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="543" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F543" s="14" t="s">
         <v>201</v>
       </c>
@@ -16842,7 +17003,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="544" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F544" s="14" t="s">
         <v>203</v>
       </c>
@@ -16850,7 +17011,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="545" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F545" s="14" t="s">
         <v>205</v>
       </c>
@@ -16858,7 +17019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E546" s="14"/>
       <c r="F546" s="14" t="s">
         <v>206</v>
@@ -16867,40 +17028,40 @@
         <v>212</v>
       </c>
     </row>
-    <row r="547" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E547" s="14"/>
       <c r="F547" s="13" t="s">
         <v>208</v>
       </c>
       <c r="G547" s="13"/>
     </row>
-    <row r="548" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E548" s="14"/>
       <c r="F548" s="13"/>
       <c r="G548" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="549" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E549" s="14"/>
       <c r="F549" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G549" s="14"/>
     </row>
-    <row r="550" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E550" s="14"/>
       <c r="F550" s="14"/>
       <c r="G550" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="551" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K551" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="552" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C552" s="3" t="s">
         <v>217</v>
       </c>
@@ -16912,7 +17073,7 @@
       </c>
       <c r="F552" s="14"/>
     </row>
-    <row r="553" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C553" s="16" t="s">
         <v>247</v>
       </c>
@@ -16923,7 +17084,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="554" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C554" s="16" t="s">
         <v>225</v>
       </c>
@@ -16937,7 +17098,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="555" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C555" s="16" t="s">
         <v>254</v>
       </c>
@@ -16951,70 +17112,70 @@
         <v>437</v>
       </c>
     </row>
-    <row r="558" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C558" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="559" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C559" s="3"/>
       <c r="D559" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="560" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C560" s="3"/>
       <c r="E560" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="561" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C561" s="3"/>
       <c r="E561" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="562" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E562" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="563" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E563" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="565" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D565" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="566" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E566" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="567" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E567" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="568" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E568" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="569" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E569" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="571" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C571" s="15" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="572" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C572" s="3" t="s">
         <v>187</v>
       </c>
@@ -17022,7 +17183,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="573" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C573" s="16" t="s">
         <v>176</v>
       </c>
@@ -17030,7 +17191,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="574" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C574" s="16" t="s">
         <v>177</v>
       </c>
@@ -17038,7 +17199,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="575" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C575" s="16" t="s">
         <v>178</v>
       </c>
@@ -17046,23 +17207,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="576" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C576" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C577" s="3"/>
       <c r="D577" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C580" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D581" s="1" t="s">
         <v>197</v>
       </c>
@@ -17076,7 +17237,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E582" s="14"/>
       <c r="F582" s="14" t="s">
         <v>201</v>
@@ -17085,7 +17246,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E583" s="14"/>
       <c r="F583" s="14" t="s">
         <v>203</v>
@@ -17094,7 +17255,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E584" s="14"/>
       <c r="F584" s="14" t="s">
         <v>205</v>
@@ -17103,7 +17264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E585" s="14"/>
       <c r="F585" s="14" t="s">
         <v>206</v>
@@ -17112,12 +17273,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E586" s="14"/>
       <c r="F586" s="14"/>
       <c r="G586" s="14"/>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D587" s="1" t="s">
         <v>210</v>
       </c>
@@ -17131,7 +17292,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F588" s="14" t="s">
         <v>201</v>
       </c>
@@ -17139,7 +17300,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F589" s="14" t="s">
         <v>203</v>
       </c>
@@ -17147,7 +17308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F590" s="14" t="s">
         <v>205</v>
       </c>
@@ -17155,7 +17316,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E591" s="14"/>
       <c r="F591" s="14" t="s">
         <v>206</v>
@@ -17164,25 +17325,25 @@
         <v>212</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E592" s="14"/>
       <c r="F592" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G592" s="14"/>
     </row>
-    <row r="593" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E593" s="14"/>
       <c r="F593" s="14"/>
       <c r="G593" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="594" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E594" s="14"/>
       <c r="F594" s="14"/>
     </row>
-    <row r="595" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D595" s="1" t="s">
         <v>269</v>
       </c>
@@ -17196,7 +17357,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="596" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F596" s="14" t="s">
         <v>201</v>
       </c>
@@ -17204,7 +17365,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="597" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F597" s="14" t="s">
         <v>203</v>
       </c>
@@ -17212,7 +17373,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="598" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F598" s="14" t="s">
         <v>205</v>
       </c>
@@ -17220,7 +17381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E599" s="14"/>
       <c r="F599" s="14" t="s">
         <v>206</v>
@@ -17229,26 +17390,26 @@
         <v>212</v>
       </c>
     </row>
-    <row r="600" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E600" s="14"/>
       <c r="F600" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G600" s="14"/>
     </row>
-    <row r="601" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E601" s="14"/>
       <c r="F601" s="14"/>
       <c r="G601" s="14" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="603" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K603" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="604" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C604" s="3" t="s">
         <v>217</v>
       </c>
@@ -17263,7 +17424,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="605" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C605" s="16" t="s">
         <v>247</v>
       </c>
@@ -17277,7 +17438,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="606" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C606" s="16" t="s">
         <v>225</v>
       </c>
@@ -17291,7 +17452,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="607" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C607" s="16" t="s">
         <v>254</v>
       </c>
@@ -17308,7 +17469,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="608" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C608" s="16" t="s">
         <v>343</v>
       </c>
@@ -17325,75 +17486,75 @@
         <v>458</v>
       </c>
     </row>
-    <row r="610" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C610" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="611" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C611" s="3"/>
       <c r="D611" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="612" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C612" s="3"/>
       <c r="E612" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="613" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C613" s="3"/>
       <c r="E613" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="614" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E614" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="615" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E615" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="616" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E616" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="618" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D618" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="619" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E619" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="620" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E620" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="621" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E621" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="622" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:5" x14ac:dyDescent="0.15">
       <c r="E622" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="624" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C624" s="15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C625" s="3" t="s">
         <v>187</v>
       </c>
@@ -17401,7 +17562,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C626" s="16" t="s">
         <v>176</v>
       </c>
@@ -17409,7 +17570,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C627" s="16" t="s">
         <v>177</v>
       </c>
@@ -17417,7 +17578,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C628" s="16" t="s">
         <v>178</v>
       </c>
@@ -17425,23 +17586,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C629" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C630" s="3"/>
       <c r="D630" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C633" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D634" s="1" t="s">
         <v>197</v>
       </c>
@@ -17455,7 +17616,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E635" s="14"/>
       <c r="F635" s="14" t="s">
         <v>201</v>
@@ -17464,7 +17625,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E636" s="14"/>
       <c r="F636" s="14" t="s">
         <v>203</v>
@@ -17473,7 +17634,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E637" s="14"/>
       <c r="F637" s="14" t="s">
         <v>205</v>
@@ -17482,7 +17643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E638" s="14"/>
       <c r="F638" s="14" t="s">
         <v>206</v>
@@ -17491,12 +17652,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E639" s="14"/>
       <c r="F639" s="14"/>
       <c r="G639" s="14"/>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D640" s="1" t="s">
         <v>210</v>
       </c>
@@ -17510,7 +17671,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="641" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="641" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F641" s="14" t="s">
         <v>201</v>
       </c>
@@ -17518,7 +17679,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="642" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="642" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F642" s="14" t="s">
         <v>203</v>
       </c>
@@ -17526,7 +17687,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="643" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="643" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F643" s="14" t="s">
         <v>205</v>
       </c>
@@ -17534,7 +17695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="644" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E644" s="14"/>
       <c r="F644" s="14" t="s">
         <v>206</v>
@@ -17543,25 +17704,25 @@
         <v>212</v>
       </c>
     </row>
-    <row r="645" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="645" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E645" s="14"/>
       <c r="F645" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G645" s="14"/>
     </row>
-    <row r="646" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="646" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E646" s="14"/>
       <c r="F646" s="14"/>
       <c r="G646" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="647" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="647" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E647" s="14"/>
       <c r="F647" s="14"/>
     </row>
-    <row r="648" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="648" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D648" s="1" t="s">
         <v>269</v>
       </c>
@@ -17575,7 +17736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="649" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="649" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F649" s="14" t="s">
         <v>201</v>
       </c>
@@ -17583,7 +17744,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="650" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="650" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F650" s="14" t="s">
         <v>203</v>
       </c>
@@ -17591,7 +17752,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="651" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="651" spans="4:11" x14ac:dyDescent="0.15">
       <c r="F651" s="14" t="s">
         <v>205</v>
       </c>
@@ -17599,7 +17760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="652" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E652" s="14"/>
       <c r="F652" s="14" t="s">
         <v>206</v>
@@ -17608,26 +17769,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="653" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="653" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E653" s="14"/>
       <c r="F653" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G653" s="14"/>
     </row>
-    <row r="654" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="654" spans="4:11" x14ac:dyDescent="0.15">
       <c r="E654" s="14"/>
       <c r="F654" s="14"/>
       <c r="G654" s="14" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="656" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="656" spans="4:11" x14ac:dyDescent="0.15">
       <c r="K656" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="657" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C657" s="3" t="s">
         <v>217</v>
       </c>
@@ -17642,7 +17803,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="658" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C658" s="16" t="s">
         <v>247</v>
       </c>
@@ -17656,7 +17817,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="659" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C659" s="16" t="s">
         <v>476</v>
       </c>
@@ -17670,7 +17831,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="660" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C660" s="16" t="s">
         <v>479</v>
       </c>
@@ -17684,83 +17845,83 @@
         <v>458</v>
       </c>
     </row>
-    <row r="661" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C661" s="16"/>
     </row>
-    <row r="663" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C663" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="664" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C664" s="3"/>
       <c r="D664" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="665" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C665" s="3"/>
       <c r="E665" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="666" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C666" s="3"/>
       <c r="E666" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="667" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E667" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="668" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E668" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="669" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E669" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="671" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D671" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="672" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E672" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="673" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E673" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="674" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E674" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="675" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E675" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="676" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E676" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="677" spans="3:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C677" s="15" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="678" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C678" s="3" t="s">
         <v>187</v>
       </c>
@@ -17768,7 +17929,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="679" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C679" s="16" t="s">
         <v>176</v>
       </c>
@@ -17776,7 +17937,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="680" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C680" s="16" t="s">
         <v>177</v>
       </c>
@@ -17784,7 +17945,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="681" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C681" s="16" t="s">
         <v>178</v>
       </c>
@@ -17792,23 +17953,23 @@
         <v>179</v>
       </c>
     </row>
-    <row r="682" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C682" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="683" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C683" s="3"/>
       <c r="D683" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="686" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C686" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="687" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D687" s="1" t="s">
         <v>197</v>
       </c>
@@ -17822,7 +17983,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="688" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E688" s="14"/>
       <c r="F688" s="14" t="s">
         <v>201</v>
@@ -17831,7 +17992,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="689" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="689" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E689" s="14"/>
       <c r="F689" s="14" t="s">
         <v>203</v>
@@ -17840,7 +18001,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="690" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="690" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E690" s="14"/>
       <c r="F690" s="14" t="s">
         <v>205</v>
@@ -17849,7 +18010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="691" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E691" s="14"/>
       <c r="F691" s="14" t="s">
         <v>206</v>
@@ -17858,12 +18019,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="692" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="692" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E692" s="14"/>
       <c r="F692" s="14"/>
       <c r="G692" s="14"/>
     </row>
-    <row r="693" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="693" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D693" s="1" t="s">
         <v>210</v>
       </c>
@@ -17877,7 +18038,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="694" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="694" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F694" s="14" t="s">
         <v>201</v>
       </c>
@@ -17885,7 +18046,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="695" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="695" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F695" s="14" t="s">
         <v>203</v>
       </c>
@@ -17893,7 +18054,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="696" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="696" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F696" s="14" t="s">
         <v>205</v>
       </c>
@@ -17901,7 +18062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="697" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E697" s="14"/>
       <c r="F697" s="14" t="s">
         <v>206</v>
@@ -17910,25 +18071,25 @@
         <v>212</v>
       </c>
     </row>
-    <row r="698" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="698" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E698" s="14"/>
       <c r="F698" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G698" s="14"/>
     </row>
-    <row r="699" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="699" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E699" s="14"/>
       <c r="F699" s="14"/>
       <c r="G699" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="700" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="700" spans="4:7" x14ac:dyDescent="0.15">
       <c r="E700" s="14"/>
       <c r="F700" s="14"/>
     </row>
-    <row r="701" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="701" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D701" s="1" t="s">
         <v>269</v>
       </c>
@@ -17942,7 +18103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="702" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="702" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F702" s="14" t="s">
         <v>201</v>
       </c>
@@ -17950,7 +18111,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="703" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="703" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F703" s="14" t="s">
         <v>203</v>
       </c>
@@ -17958,7 +18119,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="704" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="704" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F704" s="14" t="s">
         <v>205</v>
       </c>
@@ -17966,7 +18127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E705" s="14"/>
       <c r="F705" s="14" t="s">
         <v>206</v>
@@ -17975,24 +18136,24 @@
         <v>207</v>
       </c>
     </row>
-    <row r="706" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F706" s="14" t="s">
         <v>214</v>
       </c>
       <c r="G706" s="14"/>
     </row>
-    <row r="707" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:11" x14ac:dyDescent="0.15">
       <c r="F707" s="14"/>
       <c r="G707" s="14" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="709" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K709" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="710" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C710" s="3" t="s">
         <v>217</v>
       </c>
@@ -18007,7 +18168,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="711" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C711" s="16" t="s">
         <v>247</v>
       </c>
@@ -18021,7 +18182,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="712" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C712" s="16" t="s">
         <v>225</v>
       </c>
@@ -18035,7 +18196,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="713" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C713" s="16" t="s">
         <v>254</v>
       </c>
@@ -18052,73 +18213,74 @@
         <v>501</v>
       </c>
     </row>
-    <row r="714" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C714" s="16"/>
     </row>
-    <row r="716" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C716" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="717" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C717" s="3"/>
       <c r="D717" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="718" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C718" s="3"/>
       <c r="E718" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="719" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C719" s="3"/>
       <c r="E719" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="720" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:11" x14ac:dyDescent="0.15">
       <c r="E720" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="721" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E721" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="723" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D723" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="724" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="724" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E724" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="725" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E725" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="726" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E726" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="727" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E727" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="728" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="4:5" x14ac:dyDescent="0.15">
       <c r="E728" s="1" t="s">
         <v>503</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C451:C455">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -18135,19 +18297,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="72.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="72.625" customWidth="1"/>
+    <col min="3" max="3" width="52.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -18155,7 +18317,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -18166,27 +18328,27 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -18194,7 +18356,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -18202,7 +18364,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -18210,12 +18372,12 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -18223,22 +18385,22 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -18246,17 +18408,18 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>520</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>